--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2711602.270096393</v>
+        <v>-2713521.689463263</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4003475.499331051</v>
+        <v>4003475.499331053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>336.47863566696</v>
       </c>
       <c r="C11" t="n">
-        <v>319.0176857744871</v>
+        <v>319.017685774487</v>
       </c>
       <c r="D11" t="n">
-        <v>308.4278356241625</v>
+        <v>308.4278356241624</v>
       </c>
       <c r="E11" t="n">
-        <v>335.6751640757413</v>
+        <v>335.6751640757412</v>
       </c>
       <c r="F11" t="n">
-        <v>360.6208397451909</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>366.3767303348941</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1468845914421</v>
+        <v>265.8672534964699</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.25462093850405</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>101.9039816156959</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>281.4970524736144</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>160.2248074868709</v>
       </c>
       <c r="X11" t="n">
-        <v>323.4758946819485</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.9827326595331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I12" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S12" t="n">
         <v>145.1400371463127</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5767741854168</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>120.9916151021073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>99.16584202641074</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>29.89224519412556</v>
+        <v>94.62856869410776</v>
       </c>
       <c r="I13" t="n">
-        <v>73.16725555299845</v>
+        <v>73.16725555299841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.1704241453713</v>
+        <v>77.17042414537123</v>
       </c>
       <c r="S13" t="n">
-        <v>156.8830058115744</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>176.571530261405</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>239.9984762982211</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.8824373273075</v>
       </c>
       <c r="W13" t="n">
         <v>240.2677923400705</v>
       </c>
       <c r="X13" t="n">
-        <v>179.4544493925167</v>
+        <v>179.4544493925166</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.3294473555743</v>
+        <v>172.3294473555742</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>336.4786356669601</v>
       </c>
       <c r="C14" t="n">
-        <v>319.0176857744871</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>308.4278356241625</v>
@@ -1616,13 +1616,13 @@
         <v>335.6751640757413</v>
       </c>
       <c r="F14" t="n">
-        <v>31.14467384604734</v>
+        <v>360.620839745191</v>
       </c>
       <c r="G14" t="n">
-        <v>366.3767303348941</v>
+        <v>106.5578346913525</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>265.86725349647</v>
       </c>
       <c r="I14" t="n">
         <v>61.25462093850413</v>
@@ -1661,19 +1661,19 @@
         <v>165.1492113858748</v>
       </c>
       <c r="U14" t="n">
-        <v>204.8767828166183</v>
+        <v>204.8767828166184</v>
       </c>
       <c r="V14" t="n">
-        <v>281.4970524736144</v>
+        <v>281.4970524736145</v>
       </c>
       <c r="W14" t="n">
-        <v>302.9857627208925</v>
+        <v>302.9857627208926</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>323.4758946819486</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.9827326595331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I15" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S15" t="n">
         <v>145.1400371463127</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5767741854168</v>
+        <v>107.634534374388</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.1787566500487</v>
       </c>
       <c r="F16" t="n">
-        <v>99.16584202641074</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>120.5377438965358</v>
       </c>
       <c r="H16" t="n">
-        <v>105.3203954457954</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>73.16725555299845</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.1704241453713</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.8830058115744</v>
+        <v>156.8830058115745</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.5715302614051</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>239.9984762982212</v>
       </c>
       <c r="V16" t="n">
         <v>205.8824373273075</v>
       </c>
       <c r="W16" t="n">
-        <v>240.2677923400705</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>179.4544493925167</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.04426124357421</v>
+        <v>172.3294473555743</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I18" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S18" t="n">
         <v>145.1400371463127</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.32215324691265</v>
+        <v>72.32215324691266</v>
       </c>
       <c r="C19" t="n">
-        <v>59.73699416360319</v>
+        <v>59.7369941636032</v>
       </c>
       <c r="D19" t="n">
-        <v>41.10564608318771</v>
+        <v>41.10564608318772</v>
       </c>
       <c r="E19" t="n">
-        <v>38.92413571154452</v>
+        <v>38.92413571154454</v>
       </c>
       <c r="F19" t="n">
-        <v>37.9112210879066</v>
+        <v>37.91122108790661</v>
       </c>
       <c r="G19" t="n">
-        <v>59.28312295803165</v>
+        <v>59.28312295803167</v>
       </c>
       <c r="H19" t="n">
         <v>44.06577450729127</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.91580320686715</v>
+        <v>15.91580320686714</v>
       </c>
       <c r="S19" t="n">
         <v>95.62838487307027</v>
@@ -2068,7 +2068,7 @@
         <v>118.1998284540125</v>
       </c>
       <c r="Y19" t="n">
-        <v>111.0748264170701</v>
+        <v>111.0748264170702</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>275.2240147284559</v>
+        <v>275.224014728456</v>
       </c>
       <c r="C20" t="n">
-        <v>257.7630648359829</v>
+        <v>257.763064835983</v>
       </c>
       <c r="D20" t="n">
-        <v>247.1732146856583</v>
+        <v>247.1732146856584</v>
       </c>
       <c r="E20" t="n">
-        <v>274.4205431372371</v>
+        <v>274.4205431372372</v>
       </c>
       <c r="F20" t="n">
         <v>299.3662188066868</v>
@@ -2096,7 +2096,7 @@
         <v>305.12210939639</v>
       </c>
       <c r="H20" t="n">
-        <v>204.6126325579658</v>
+        <v>204.6126325579659</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.64936067719172</v>
+        <v>40.64936067719177</v>
       </c>
       <c r="T20" t="n">
         <v>103.8945904473706</v>
@@ -2147,7 +2147,7 @@
         <v>262.2212737434444</v>
       </c>
       <c r="Y20" t="n">
-        <v>278.7281117210289</v>
+        <v>278.728111721029</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I21" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S21" t="n">
         <v>145.1400371463127</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.32215324691263</v>
+        <v>72.32215324691269</v>
       </c>
       <c r="C22" t="n">
-        <v>59.73699416360317</v>
+        <v>59.73699416360323</v>
       </c>
       <c r="D22" t="n">
-        <v>41.10564608318769</v>
+        <v>41.10564608318775</v>
       </c>
       <c r="E22" t="n">
-        <v>38.92413571154451</v>
+        <v>38.92413571154457</v>
       </c>
       <c r="F22" t="n">
-        <v>37.91122108790658</v>
+        <v>37.91122108790664</v>
       </c>
       <c r="G22" t="n">
-        <v>59.28312295803164</v>
+        <v>59.2831229580317</v>
       </c>
       <c r="H22" t="n">
-        <v>44.06577450729125</v>
+        <v>44.0657745072913</v>
       </c>
       <c r="I22" t="n">
-        <v>11.91263461449429</v>
+        <v>11.91263461449434</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.91580320686713</v>
+        <v>15.91580320686717</v>
       </c>
       <c r="S22" t="n">
-        <v>95.62838487307025</v>
+        <v>95.6283848730703</v>
       </c>
       <c r="T22" t="n">
         <v>115.3169093229009</v>
       </c>
       <c r="U22" t="n">
-        <v>178.743855359717</v>
+        <v>178.7438553597171</v>
       </c>
       <c r="V22" t="n">
         <v>144.6278163888034</v>
@@ -2305,7 +2305,7 @@
         <v>118.1998284540125</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.0748264170701</v>
+        <v>111.0748264170702</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>275.2240147284559</v>
+        <v>275.224014728456</v>
       </c>
       <c r="C23" t="n">
-        <v>257.7630648359829</v>
+        <v>257.763064835983</v>
       </c>
       <c r="D23" t="n">
-        <v>247.1732146856583</v>
+        <v>247.1732146856584</v>
       </c>
       <c r="E23" t="n">
-        <v>274.4205431372371</v>
+        <v>274.4205431372372</v>
       </c>
       <c r="F23" t="n">
         <v>299.3662188066868</v>
@@ -2333,7 +2333,7 @@
         <v>305.12210939639</v>
       </c>
       <c r="H23" t="n">
-        <v>204.6126325579658</v>
+        <v>204.6126325579659</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.64936067719172</v>
+        <v>40.64936067719178</v>
       </c>
       <c r="T23" t="n">
         <v>103.8945904473706</v>
@@ -2384,7 +2384,7 @@
         <v>262.2212737434444</v>
       </c>
       <c r="Y23" t="n">
-        <v>278.7281117210289</v>
+        <v>278.728111721029</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I24" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S24" t="n">
         <v>145.1400371463127</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.32215324691263</v>
+        <v>72.32215324691269</v>
       </c>
       <c r="C25" t="n">
-        <v>59.73699416360317</v>
+        <v>59.73699416360323</v>
       </c>
       <c r="D25" t="n">
-        <v>41.10564608318769</v>
+        <v>41.10564608318775</v>
       </c>
       <c r="E25" t="n">
-        <v>38.92413571154451</v>
+        <v>38.92413571154457</v>
       </c>
       <c r="F25" t="n">
-        <v>37.91122108790658</v>
+        <v>37.91122108790664</v>
       </c>
       <c r="G25" t="n">
-        <v>59.28312295803164</v>
+        <v>59.2831229580317</v>
       </c>
       <c r="H25" t="n">
-        <v>44.06577450729125</v>
+        <v>44.0657745072913</v>
       </c>
       <c r="I25" t="n">
-        <v>11.91263461449429</v>
+        <v>11.91263461449434</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.91580320686713</v>
+        <v>15.91580320686717</v>
       </c>
       <c r="S25" t="n">
-        <v>95.62838487307025</v>
+        <v>95.6283848730703</v>
       </c>
       <c r="T25" t="n">
         <v>115.3169093229009</v>
       </c>
       <c r="U25" t="n">
-        <v>178.743855359717</v>
+        <v>178.7438553597171</v>
       </c>
       <c r="V25" t="n">
         <v>144.6278163888034</v>
@@ -2542,7 +2542,7 @@
         <v>118.1998284540125</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.0748264170701</v>
+        <v>111.0748264170702</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>301.0609554110343</v>
       </c>
       <c r="C26" t="n">
-        <v>283.6000055185613</v>
+        <v>283.6000055185614</v>
       </c>
       <c r="D26" t="n">
         <v>273.0101553682367</v>
@@ -2570,10 +2570,10 @@
         <v>330.9590500789684</v>
       </c>
       <c r="H26" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405443</v>
       </c>
       <c r="I26" t="n">
-        <v>25.8369406825784</v>
+        <v>25.83694068257839</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T26" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U26" t="n">
-        <v>169.4591025606926</v>
+        <v>169.4591025606927</v>
       </c>
       <c r="V26" t="n">
         <v>246.0793722176887</v>
@@ -2652,7 +2652,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I27" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S27" t="n">
         <v>145.1400371463127</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949109</v>
       </c>
       <c r="C28" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618163</v>
       </c>
       <c r="D28" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576615</v>
       </c>
       <c r="E28" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412297</v>
       </c>
       <c r="F28" t="n">
-        <v>63.74816177048501</v>
+        <v>63.74816177048504</v>
       </c>
       <c r="G28" t="n">
-        <v>85.12006364061006</v>
+        <v>85.12006364061008</v>
       </c>
       <c r="H28" t="n">
         <v>69.9027151898697</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74957529707272</v>
+        <v>37.74957529707274</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75274388944555</v>
+        <v>41.75274388944557</v>
       </c>
       <c r="S28" t="n">
         <v>121.4653255556487</v>
@@ -2767,7 +2767,7 @@
         <v>141.1538500054793</v>
       </c>
       <c r="U28" t="n">
-        <v>204.5807960422954</v>
+        <v>204.5807960422955</v>
       </c>
       <c r="V28" t="n">
         <v>170.4647570713818</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.0609554110343</v>
+        <v>301.0609554110342</v>
       </c>
       <c r="C29" t="n">
         <v>283.6000055185613</v>
       </c>
       <c r="D29" t="n">
-        <v>273.0101553682367</v>
+        <v>273.0101553682366</v>
       </c>
       <c r="E29" t="n">
-        <v>300.2574838198155</v>
+        <v>300.2574838198154</v>
       </c>
       <c r="F29" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892651</v>
       </c>
       <c r="G29" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789683</v>
       </c>
       <c r="H29" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405441</v>
       </c>
       <c r="I29" t="n">
-        <v>25.83694068257842</v>
+        <v>25.83694068257827</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.48630135977018</v>
+        <v>66.48630135977005</v>
       </c>
       <c r="T29" t="n">
-        <v>129.731531129949</v>
+        <v>129.7315311299489</v>
       </c>
       <c r="U29" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606925</v>
       </c>
       <c r="V29" t="n">
-        <v>246.0793722176887</v>
+        <v>246.0793722176886</v>
       </c>
       <c r="W29" t="n">
-        <v>267.5680824649668</v>
+        <v>267.5680824649667</v>
       </c>
       <c r="X29" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260227</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.5650524036074</v>
+        <v>304.5650524036073</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I30" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S30" t="n">
         <v>145.1400371463127</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949098</v>
       </c>
       <c r="C31" t="n">
-        <v>85.57393484618161</v>
+        <v>85.57393484618152</v>
       </c>
       <c r="D31" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576604</v>
       </c>
       <c r="E31" t="n">
-        <v>64.76107639412295</v>
+        <v>64.76107639412285</v>
       </c>
       <c r="F31" t="n">
-        <v>63.74816177048503</v>
+        <v>63.74816177048493</v>
       </c>
       <c r="G31" t="n">
-        <v>85.12006364061007</v>
+        <v>85.12006364060997</v>
       </c>
       <c r="H31" t="n">
-        <v>69.9027151898697</v>
+        <v>69.9027151898696</v>
       </c>
       <c r="I31" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707262</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75274388944558</v>
+        <v>41.75274388944545</v>
       </c>
       <c r="S31" t="n">
-        <v>121.4653255556487</v>
+        <v>121.4653255556486</v>
       </c>
       <c r="T31" t="n">
-        <v>141.1538500054793</v>
+        <v>141.1538500054792</v>
       </c>
       <c r="U31" t="n">
         <v>204.5807960422954</v>
       </c>
       <c r="V31" t="n">
-        <v>170.4647570713818</v>
+        <v>170.4647570713817</v>
       </c>
       <c r="W31" t="n">
-        <v>204.8501120841448</v>
+        <v>204.8501120841447</v>
       </c>
       <c r="X31" t="n">
-        <v>144.0367691365909</v>
+        <v>144.0367691365927</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.9117670996486</v>
+        <v>136.9117670996485</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I32" t="n">
-        <v>25.83694068257842</v>
+        <v>25.83694068257839</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.48630135977017</v>
+        <v>66.48630135977015</v>
       </c>
       <c r="T32" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U32" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V32" t="n">
         <v>246.0793722176887</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949105</v>
       </c>
       <c r="C34" t="n">
-        <v>85.57393484618161</v>
+        <v>85.57393484618159</v>
       </c>
       <c r="D34" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576611</v>
       </c>
       <c r="E34" t="n">
-        <v>64.76107639412295</v>
+        <v>64.76107639412292</v>
       </c>
       <c r="F34" t="n">
-        <v>63.74816177048503</v>
+        <v>63.748161770485</v>
       </c>
       <c r="G34" t="n">
-        <v>85.12006364061007</v>
+        <v>85.12006364061004</v>
       </c>
       <c r="H34" t="n">
-        <v>69.90271518986971</v>
+        <v>69.90271518986967</v>
       </c>
       <c r="I34" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707271</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75274388944557</v>
+        <v>41.75274388944555</v>
       </c>
       <c r="S34" t="n">
         <v>121.4653255556487</v>
@@ -3275,16 +3275,16 @@
         <v>300.2574838198155</v>
       </c>
       <c r="F35" t="n">
-        <v>325.2031594892652</v>
+        <v>325.2031594892651</v>
       </c>
       <c r="G35" t="n">
-        <v>330.9590500789684</v>
+        <v>330.9590500789683</v>
       </c>
       <c r="H35" t="n">
         <v>230.4495732405442</v>
       </c>
       <c r="I35" t="n">
-        <v>25.83694068257842</v>
+        <v>25.83694068257832</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.48630135977017</v>
+        <v>66.4863013597701</v>
       </c>
       <c r="T35" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U35" t="n">
-        <v>169.4591025606927</v>
+        <v>169.4591025606926</v>
       </c>
       <c r="V35" t="n">
-        <v>246.0793722176887</v>
+        <v>246.0793722176886</v>
       </c>
       <c r="W35" t="n">
-        <v>267.5680824649668</v>
+        <v>267.5680824649667</v>
       </c>
       <c r="X35" t="n">
-        <v>288.0582144260228</v>
+        <v>288.0582144260227</v>
       </c>
       <c r="Y35" t="n">
-        <v>304.5650524036074</v>
+        <v>304.5650524036073</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I36" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S36" t="n">
         <v>145.1400371463127</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.15909392949108</v>
+        <v>98.15909392949102</v>
       </c>
       <c r="C37" t="n">
-        <v>85.57393484618161</v>
+        <v>85.57393484618156</v>
       </c>
       <c r="D37" t="n">
-        <v>66.94258676576614</v>
+        <v>66.94258676576608</v>
       </c>
       <c r="E37" t="n">
-        <v>64.76107639412295</v>
+        <v>64.7610763941229</v>
       </c>
       <c r="F37" t="n">
-        <v>63.74816177048503</v>
+        <v>63.74816177048497</v>
       </c>
       <c r="G37" t="n">
-        <v>85.12006364061007</v>
+        <v>85.12006364061003</v>
       </c>
       <c r="H37" t="n">
-        <v>69.90271518986971</v>
+        <v>69.90271518986964</v>
       </c>
       <c r="I37" t="n">
-        <v>37.74957529707274</v>
+        <v>37.74957529707267</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75274388944557</v>
+        <v>41.7527438894455</v>
       </c>
       <c r="S37" t="n">
-        <v>121.4653255556487</v>
+        <v>121.4653255556486</v>
       </c>
       <c r="T37" t="n">
         <v>141.1538500054793</v>
@@ -3481,16 +3481,16 @@
         <v>204.5807960422954</v>
       </c>
       <c r="V37" t="n">
-        <v>170.4647570713818</v>
+        <v>170.4647570713817</v>
       </c>
       <c r="W37" t="n">
-        <v>204.8501120841448</v>
+        <v>204.8501120841447</v>
       </c>
       <c r="X37" t="n">
         <v>144.0367691365909</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.9117670996486</v>
+        <v>136.9117670996485</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>230.4495732405442</v>
       </c>
       <c r="I38" t="n">
-        <v>25.8369406825784</v>
+        <v>25.83694068257833</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977012</v>
       </c>
       <c r="T38" t="n">
         <v>129.731531129949</v>
@@ -3560,7 +3560,7 @@
         <v>169.4591025606926</v>
       </c>
       <c r="V38" t="n">
-        <v>246.0793722176887</v>
+        <v>246.0793722176886</v>
       </c>
       <c r="W38" t="n">
         <v>267.5680824649668</v>
@@ -3569,7 +3569,7 @@
         <v>288.0582144260228</v>
       </c>
       <c r="Y38" t="n">
-        <v>304.5650524036074</v>
+        <v>304.5650524036073</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I39" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S39" t="n">
         <v>145.1400371463127</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949104</v>
       </c>
       <c r="C40" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618157</v>
       </c>
       <c r="D40" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576609</v>
       </c>
       <c r="E40" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412291</v>
       </c>
       <c r="F40" t="n">
-        <v>63.74816177048501</v>
+        <v>63.74816177048498</v>
       </c>
       <c r="G40" t="n">
-        <v>85.12006364061007</v>
+        <v>85.12006364061004</v>
       </c>
       <c r="H40" t="n">
-        <v>69.90271518986968</v>
+        <v>69.90271518986965</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74957529707272</v>
+        <v>37.74957529707268</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75274388944556</v>
+        <v>41.75274388944551</v>
       </c>
       <c r="S40" t="n">
-        <v>121.4653255556487</v>
+        <v>121.4653255556486</v>
       </c>
       <c r="T40" t="n">
         <v>141.1538500054793</v>
@@ -3718,16 +3718,16 @@
         <v>204.5807960422954</v>
       </c>
       <c r="V40" t="n">
-        <v>170.4647570713818</v>
+        <v>170.4647570713817</v>
       </c>
       <c r="W40" t="n">
-        <v>204.8501120841448</v>
+        <v>204.8501120841447</v>
       </c>
       <c r="X40" t="n">
         <v>144.0367691365909</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.9117670996486</v>
+        <v>136.9117670996485</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>301.0609554110343</v>
       </c>
       <c r="C41" t="n">
-        <v>283.6000055185613</v>
+        <v>283.6000055185614</v>
       </c>
       <c r="D41" t="n">
         <v>273.0101553682367</v>
@@ -3755,10 +3755,10 @@
         <v>330.9590500789684</v>
       </c>
       <c r="H41" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405443</v>
       </c>
       <c r="I41" t="n">
-        <v>25.8369406825784</v>
+        <v>25.83694068257839</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T41" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U41" t="n">
-        <v>169.4591025606926</v>
+        <v>169.4591025606927</v>
       </c>
       <c r="V41" t="n">
         <v>246.0793722176887</v>
@@ -3837,7 +3837,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I42" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S42" t="n">
         <v>145.1400371463127</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949109</v>
       </c>
       <c r="C43" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618163</v>
       </c>
       <c r="D43" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576615</v>
       </c>
       <c r="E43" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412297</v>
       </c>
       <c r="F43" t="n">
-        <v>63.74816177048501</v>
+        <v>63.74816177048504</v>
       </c>
       <c r="G43" t="n">
-        <v>85.12006364061006</v>
+        <v>85.12006364061008</v>
       </c>
       <c r="H43" t="n">
         <v>69.9027151898697</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74957529707272</v>
+        <v>37.74957529707274</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75274388944555</v>
+        <v>41.75274388944557</v>
       </c>
       <c r="S43" t="n">
         <v>121.4653255556487</v>
@@ -3952,7 +3952,7 @@
         <v>141.1538500054793</v>
       </c>
       <c r="U43" t="n">
-        <v>204.5807960422954</v>
+        <v>204.5807960422955</v>
       </c>
       <c r="V43" t="n">
         <v>170.4647570713818</v>
@@ -3977,7 +3977,7 @@
         <v>301.0609554110343</v>
       </c>
       <c r="C44" t="n">
-        <v>283.6000055185613</v>
+        <v>283.6000055185614</v>
       </c>
       <c r="D44" t="n">
         <v>273.0101553682367</v>
@@ -3992,10 +3992,10 @@
         <v>330.9590500789684</v>
       </c>
       <c r="H44" t="n">
-        <v>230.4495732405442</v>
+        <v>230.4495732405443</v>
       </c>
       <c r="I44" t="n">
-        <v>25.8369406825784</v>
+        <v>25.83694068257839</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.48630135977015</v>
+        <v>66.48630135977018</v>
       </c>
       <c r="T44" t="n">
         <v>129.731531129949</v>
       </c>
       <c r="U44" t="n">
-        <v>169.4591025606926</v>
+        <v>169.4591025606927</v>
       </c>
       <c r="V44" t="n">
         <v>246.0793722176887</v>
@@ -4074,7 +4074,7 @@
         <v>98.43426809140308</v>
       </c>
       <c r="I45" t="n">
-        <v>40.19625467749002</v>
+        <v>40.19625467749</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.43419677301468</v>
+        <v>11.43419677301465</v>
       </c>
       <c r="S45" t="n">
         <v>145.1400371463127</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.15909392949106</v>
+        <v>98.15909392949109</v>
       </c>
       <c r="C46" t="n">
-        <v>85.5739348461816</v>
+        <v>85.57393484618163</v>
       </c>
       <c r="D46" t="n">
-        <v>66.94258676576612</v>
+        <v>66.94258676576615</v>
       </c>
       <c r="E46" t="n">
-        <v>64.76107639412294</v>
+        <v>64.76107639412297</v>
       </c>
       <c r="F46" t="n">
-        <v>63.74816177048501</v>
+        <v>63.74816177048504</v>
       </c>
       <c r="G46" t="n">
-        <v>85.12006364061007</v>
+        <v>85.1200636406101</v>
       </c>
       <c r="H46" t="n">
-        <v>69.90271518986968</v>
+        <v>69.90271518986971</v>
       </c>
       <c r="I46" t="n">
-        <v>37.74957529707272</v>
+        <v>37.74957529707274</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75274388944556</v>
+        <v>41.75274388944557</v>
       </c>
       <c r="S46" t="n">
         <v>121.4653255556487</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.479811062408</v>
+        <v>1725.64561924255</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.239724421512</v>
+        <v>1403.405532601654</v>
       </c>
       <c r="D11" t="n">
-        <v>1310.696456114277</v>
+        <v>1091.862264294419</v>
       </c>
       <c r="E11" t="n">
-        <v>971.6306338155482</v>
+        <v>752.7964419956904</v>
       </c>
       <c r="F11" t="n">
-        <v>607.3671593254563</v>
+        <v>752.7964419956904</v>
       </c>
       <c r="G11" t="n">
-        <v>237.2896539366741</v>
+        <v>382.7189366069085</v>
       </c>
       <c r="H11" t="n">
-        <v>52.29280081400536</v>
+        <v>114.1661552973428</v>
       </c>
       <c r="I11" t="n">
         <v>52.29280081400536</v>
       </c>
       <c r="J11" t="n">
-        <v>264.8771072000616</v>
+        <v>264.8771072000617</v>
       </c>
       <c r="K11" t="n">
-        <v>704.2306799239227</v>
+        <v>704.2306799239229</v>
       </c>
       <c r="L11" t="n">
-        <v>1152.780166625042</v>
+        <v>888.0796623255953</v>
       </c>
       <c r="M11" t="n">
-        <v>1389.017020897479</v>
+        <v>1124.316516598033</v>
       </c>
       <c r="N11" t="n">
-        <v>1633.690242828905</v>
+        <v>1368.989738529459</v>
       </c>
       <c r="O11" t="n">
-        <v>1851.392966935573</v>
+        <v>1851.392966935572</v>
       </c>
       <c r="P11" t="n">
         <v>2321.276925460894</v>
@@ -5066,25 +5066,25 @@
         <v>2614.640040700268</v>
       </c>
       <c r="S11" t="n">
-        <v>2614.640040700268</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="T11" t="n">
-        <v>2614.640040700268</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="U11" t="n">
-        <v>2614.640040700268</v>
+        <v>2511.706725936939</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.640040700268</v>
+        <v>2227.366268892884</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.640040700268</v>
+        <v>2065.523029007156</v>
       </c>
       <c r="X11" t="n">
-        <v>2287.896712738704</v>
+        <v>2065.523029007156</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.479811062408</v>
+        <v>2065.523029007156</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958.7704702275041</v>
+        <v>958.7704702275046</v>
       </c>
       <c r="C12" t="n">
-        <v>784.3174409463771</v>
+        <v>784.3174409463776</v>
       </c>
       <c r="D12" t="n">
-        <v>635.383031285126</v>
+        <v>635.3830312851264</v>
       </c>
       <c r="E12" t="n">
-        <v>476.1455762796704</v>
+        <v>476.1455762796709</v>
       </c>
       <c r="F12" t="n">
-        <v>329.6110183065555</v>
+        <v>329.6110183065559</v>
       </c>
       <c r="G12" t="n">
-        <v>192.3236318936952</v>
+        <v>192.3236318936953</v>
       </c>
       <c r="H12" t="n">
-        <v>92.89507826601547</v>
+        <v>92.89507826601539</v>
       </c>
       <c r="I12" t="n">
         <v>52.29280081400536</v>
@@ -5124,16 +5124,16 @@
         <v>539.0161160676603</v>
       </c>
       <c r="L12" t="n">
-        <v>709.0202831792355</v>
+        <v>1076.15222502966</v>
       </c>
       <c r="M12" t="n">
-        <v>926.7639957921792</v>
+        <v>1478.524809391846</v>
       </c>
       <c r="N12" t="n">
-        <v>1573.887405865496</v>
+        <v>1716.440195076764</v>
       </c>
       <c r="O12" t="n">
-        <v>1911.86649723637</v>
+        <v>1911.866497236369</v>
       </c>
       <c r="P12" t="n">
         <v>2364.658408516852</v>
@@ -5145,13 +5145,13 @@
         <v>2603.090346990152</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.484248862563</v>
+        <v>2456.484248862564</v>
       </c>
       <c r="T12" t="n">
-        <v>2260.115726349211</v>
+        <v>2260.115726349212</v>
       </c>
       <c r="U12" t="n">
-        <v>2031.987071178003</v>
+        <v>2031.987071178004</v>
       </c>
       <c r="V12" t="n">
         <v>1796.834962946261</v>
@@ -5160,10 +5160,10 @@
         <v>1542.597606218059</v>
       </c>
       <c r="X12" t="n">
-        <v>1334.746106012526</v>
+        <v>1334.746106012527</v>
       </c>
       <c r="Y12" t="n">
-        <v>1126.985807247572</v>
+        <v>1126.985807247573</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>378.7745764459671</v>
+        <v>221.7835323767388</v>
       </c>
       <c r="C13" t="n">
-        <v>256.5608238175759</v>
+        <v>221.7835323767388</v>
       </c>
       <c r="D13" t="n">
-        <v>256.5608238175759</v>
+        <v>221.7835323767388</v>
       </c>
       <c r="E13" t="n">
-        <v>256.5608238175759</v>
+        <v>221.7835323767388</v>
       </c>
       <c r="F13" t="n">
-        <v>156.3933066191811</v>
+        <v>221.7835323767388</v>
       </c>
       <c r="G13" t="n">
-        <v>156.3933066191811</v>
+        <v>221.7835323767388</v>
       </c>
       <c r="H13" t="n">
         <v>126.1991195544078</v>
@@ -5197,19 +5197,19 @@
         <v>52.29280081400536</v>
       </c>
       <c r="J13" t="n">
-        <v>89.5135428069687</v>
+        <v>89.51354280696877</v>
       </c>
       <c r="K13" t="n">
-        <v>251.0567489464905</v>
+        <v>251.0567489464906</v>
       </c>
       <c r="L13" t="n">
-        <v>500.4966927854846</v>
+        <v>500.4966927854849</v>
       </c>
       <c r="M13" t="n">
-        <v>771.3959835616729</v>
+        <v>771.3959835616733</v>
       </c>
       <c r="N13" t="n">
-        <v>1042.37735807374</v>
+        <v>1042.377358073741</v>
       </c>
       <c r="O13" t="n">
         <v>1280.151947797892</v>
@@ -5218,31 +5218,31 @@
         <v>1466.69763147612</v>
       </c>
       <c r="Q13" t="n">
-        <v>1526.505307245896</v>
+        <v>1526.505307245897</v>
       </c>
       <c r="R13" t="n">
-        <v>1448.555383866733</v>
+        <v>1448.555383866734</v>
       </c>
       <c r="S13" t="n">
-        <v>1290.087701228779</v>
+        <v>1448.555383866734</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.732620156652</v>
+        <v>1270.200302794608</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.732620156652</v>
+        <v>1027.777599463071</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.732620156652</v>
+        <v>819.8155415566998</v>
       </c>
       <c r="W13" t="n">
-        <v>869.0378804192072</v>
+        <v>577.1208018192549</v>
       </c>
       <c r="X13" t="n">
-        <v>687.7707598207055</v>
+        <v>395.8536812207532</v>
       </c>
       <c r="Y13" t="n">
-        <v>513.7006109766911</v>
+        <v>221.7835323767388</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1501.292716739456</v>
+        <v>1517.966290454188</v>
       </c>
       <c r="C14" t="n">
-        <v>1179.05263009856</v>
+        <v>1517.966290454188</v>
       </c>
       <c r="D14" t="n">
-        <v>867.5093617913251</v>
+        <v>1206.423022146953</v>
       </c>
       <c r="E14" t="n">
-        <v>528.4435394925965</v>
+        <v>867.3571998482248</v>
       </c>
       <c r="F14" t="n">
-        <v>496.9842729814376</v>
+        <v>503.0937253581329</v>
       </c>
       <c r="G14" t="n">
-        <v>126.9067675926557</v>
+        <v>395.4595489022212</v>
       </c>
       <c r="H14" t="n">
         <v>126.9067675926557</v>
       </c>
       <c r="I14" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J14" t="n">
-        <v>264.0619476876747</v>
+        <v>137.6242706195378</v>
       </c>
       <c r="K14" t="n">
-        <v>382.5115619660828</v>
+        <v>256.073884897946</v>
       </c>
       <c r="L14" t="n">
-        <v>979.845146772701</v>
+        <v>853.4074697045644</v>
       </c>
       <c r="M14" t="n">
-        <v>1216.082001045139</v>
+        <v>1534.662722134906</v>
       </c>
       <c r="N14" t="n">
-        <v>1893.728678144429</v>
+        <v>2212.309399234196</v>
       </c>
       <c r="O14" t="n">
-        <v>2488.423581701214</v>
+        <v>2807.004302790982</v>
       </c>
       <c r="P14" t="n">
-        <v>2958.307540226535</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q14" t="n">
-        <v>3233.949064519339</v>
+        <v>3233.94906451934</v>
       </c>
       <c r="R14" t="n">
-        <v>3251.670655465909</v>
+        <v>3251.67065546591</v>
       </c>
       <c r="S14" t="n">
-        <v>3148.73734070258</v>
+        <v>3148.737340702581</v>
       </c>
       <c r="T14" t="n">
         <v>2981.919955464323</v>
       </c>
       <c r="U14" t="n">
-        <v>2774.973710195011</v>
+        <v>2774.973710195012</v>
       </c>
       <c r="V14" t="n">
         <v>2490.633253150957</v>
       </c>
       <c r="W14" t="n">
-        <v>2184.587028180358</v>
+        <v>2184.587028180359</v>
       </c>
       <c r="X14" t="n">
-        <v>2184.587028180358</v>
+        <v>1857.843700218795</v>
       </c>
       <c r="Y14" t="n">
-        <v>1841.170126504062</v>
+        <v>1857.843700218795</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I15" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J15" t="n">
-        <v>197.9537899615553</v>
+        <v>197.9537899615554</v>
       </c>
       <c r="K15" t="n">
-        <v>551.756728362973</v>
+        <v>551.7567283629731</v>
       </c>
       <c r="L15" t="n">
-        <v>798.9727584740981</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.716471087042</v>
+        <v>1306.636549937917</v>
       </c>
       <c r="N15" t="n">
         <v>1729.180807372077</v>
       </c>
       <c r="O15" t="n">
-        <v>1924.607109531683</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P15" t="n">
         <v>2377.399020812165</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>467.2467837373388</v>
+        <v>287.9793732573834</v>
       </c>
       <c r="C16" t="n">
-        <v>467.2467837373388</v>
+        <v>287.9793732573834</v>
       </c>
       <c r="D16" t="n">
-        <v>467.2467837373388</v>
+        <v>287.9793732573834</v>
       </c>
       <c r="E16" t="n">
-        <v>467.2467837373388</v>
+        <v>186.7887099745059</v>
       </c>
       <c r="F16" t="n">
-        <v>367.0792665389441</v>
+        <v>186.7887099745059</v>
       </c>
       <c r="G16" t="n">
-        <v>245.3239696737564</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="H16" t="n">
-        <v>138.9397318497207</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="I16" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J16" t="n">
         <v>102.2541551022815</v>
       </c>
       <c r="K16" t="n">
-        <v>263.7973612418033</v>
+        <v>263.797361241803</v>
       </c>
       <c r="L16" t="n">
-        <v>513.2373050807975</v>
+        <v>513.2373050807972</v>
       </c>
       <c r="M16" t="n">
-        <v>784.136595856986</v>
+        <v>784.1365958569857</v>
       </c>
       <c r="N16" t="n">
-        <v>1055.117970369054</v>
+        <v>1055.117970369053</v>
       </c>
       <c r="O16" t="n">
-        <v>1292.892560093205</v>
+        <v>1292.892560093204</v>
       </c>
       <c r="P16" t="n">
         <v>1479.438243771433</v>
@@ -5458,28 +5458,28 @@
         <v>1539.245919541209</v>
       </c>
       <c r="R16" t="n">
-        <v>1461.295996162046</v>
+        <v>1539.245919541209</v>
       </c>
       <c r="S16" t="n">
-        <v>1302.828313524092</v>
+        <v>1380.778236903255</v>
       </c>
       <c r="T16" t="n">
-        <v>1302.828313524092</v>
+        <v>1202.423155831128</v>
       </c>
       <c r="U16" t="n">
-        <v>1302.828313524092</v>
+        <v>960.0004524995923</v>
       </c>
       <c r="V16" t="n">
-        <v>1094.866255617721</v>
+        <v>752.038394593221</v>
       </c>
       <c r="W16" t="n">
-        <v>852.1715158802759</v>
+        <v>752.038394593221</v>
       </c>
       <c r="X16" t="n">
-        <v>670.9043952817742</v>
+        <v>570.7712739947193</v>
       </c>
       <c r="Y16" t="n">
-        <v>602.1728182680629</v>
+        <v>396.7011251507046</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>1669.536224644592</v>
       </c>
       <c r="C17" t="n">
-        <v>1409.169492487033</v>
+        <v>1409.169492487034</v>
       </c>
       <c r="D17" t="n">
         <v>1159.499578663136</v>
       </c>
       <c r="E17" t="n">
-        <v>882.3071108477452</v>
+        <v>882.3071108477453</v>
       </c>
       <c r="F17" t="n">
-        <v>579.9169908409908</v>
+        <v>579.9169908409909</v>
       </c>
       <c r="G17" t="n">
         <v>271.7128399355463</v>
       </c>
       <c r="H17" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="I17" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J17" t="n">
-        <v>277.6177194953744</v>
+        <v>277.6177194953745</v>
       </c>
       <c r="K17" t="n">
-        <v>716.9712922192357</v>
+        <v>716.9712922192358</v>
       </c>
       <c r="L17" t="n">
-        <v>967.8002037826612</v>
+        <v>1314.304877025854</v>
       </c>
       <c r="M17" t="n">
-        <v>1649.055456213003</v>
+        <v>1550.541731298292</v>
       </c>
       <c r="N17" t="n">
-        <v>1893.728678144429</v>
+        <v>1893.72867814443</v>
       </c>
       <c r="O17" t="n">
-        <v>2488.423581701214</v>
+        <v>2488.423581701215</v>
       </c>
       <c r="P17" t="n">
-        <v>2958.307540226535</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q17" t="n">
-        <v>3233.949064519339</v>
+        <v>3233.94906451934</v>
       </c>
       <c r="R17" t="n">
-        <v>3251.670655465909</v>
+        <v>3251.67065546591</v>
       </c>
       <c r="S17" t="n">
-        <v>3210.610695185918</v>
+        <v>3210.610695185919</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.666664430998</v>
+        <v>3105.666664430999</v>
       </c>
       <c r="U17" t="n">
-        <v>2960.593773645024</v>
+        <v>2960.593773645025</v>
       </c>
       <c r="V17" t="n">
         <v>2738.126671084307</v>
@@ -5589,25 +5589,25 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I18" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J18" t="n">
-        <v>197.9537899615553</v>
+        <v>197.9537899615554</v>
       </c>
       <c r="K18" t="n">
-        <v>483.1987192035604</v>
+        <v>551.7567283629731</v>
       </c>
       <c r="L18" t="n">
-        <v>653.2028863151356</v>
+        <v>1088.892837324973</v>
       </c>
       <c r="M18" t="n">
-        <v>1331.994612040579</v>
+        <v>1491.265421687159</v>
       </c>
       <c r="N18" t="n">
-        <v>2044.458948325615</v>
+        <v>1729.180807372077</v>
       </c>
       <c r="O18" t="n">
-        <v>2239.88525048522</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P18" t="n">
         <v>2377.399020812165</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.9319273780649</v>
+        <v>360.931927378065</v>
       </c>
       <c r="C19" t="n">
         <v>300.5915292330112</v>
@@ -5656,7 +5656,7 @@
         <v>259.0706746035287</v>
       </c>
       <c r="E19" t="n">
-        <v>219.7533658039887</v>
+        <v>219.7533658039888</v>
       </c>
       <c r="F19" t="n">
         <v>181.4592030889316</v>
@@ -5665,34 +5665,34 @@
         <v>121.5772607070814</v>
       </c>
       <c r="H19" t="n">
-        <v>77.06637736638315</v>
+        <v>77.06637736638316</v>
       </c>
       <c r="I19" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J19" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="K19" t="n">
-        <v>180.7839653122846</v>
+        <v>180.7839653122847</v>
       </c>
       <c r="L19" t="n">
-        <v>384.4312552147235</v>
+        <v>490.8659838803981</v>
       </c>
       <c r="M19" t="n">
-        <v>617.3790637965128</v>
+        <v>822.4073493857056</v>
       </c>
       <c r="N19" t="n">
-        <v>949.0025130376996</v>
+        <v>1047.596069961218</v>
       </c>
       <c r="O19" t="n">
-        <v>1247.41917749097</v>
+        <v>1239.578005748814</v>
       </c>
       <c r="P19" t="n">
-        <v>1388.172207232643</v>
+        <v>1380.331035490487</v>
       </c>
       <c r="Q19" t="n">
-        <v>1402.187229065863</v>
+        <v>1402.187229065864</v>
       </c>
       <c r="R19" t="n">
         <v>1386.110660170038</v>
@@ -5704,19 +5704,19 @@
         <v>1173.034605426633</v>
       </c>
       <c r="U19" t="n">
-        <v>992.4852565784337</v>
+        <v>992.4852565784338</v>
       </c>
       <c r="V19" t="n">
-        <v>846.3965531553999</v>
+        <v>846.3965531554001</v>
       </c>
       <c r="W19" t="n">
-        <v>665.5751679012925</v>
+        <v>665.5751679012926</v>
       </c>
       <c r="X19" t="n">
         <v>546.1814017861284</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.9846074254514</v>
+        <v>433.9846074254515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1669.536224644592</v>
+        <v>1669.536224644591</v>
       </c>
       <c r="C20" t="n">
         <v>1409.169492487033</v>
@@ -5741,46 +5741,46 @@
         <v>579.9169908409908</v>
       </c>
       <c r="G20" t="n">
-        <v>271.7128399355463</v>
+        <v>271.7128399355464</v>
       </c>
       <c r="H20" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="I20" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J20" t="n">
-        <v>277.6177194953744</v>
+        <v>277.6177194953745</v>
       </c>
       <c r="K20" t="n">
-        <v>716.9712922192357</v>
+        <v>716.9712922192358</v>
       </c>
       <c r="L20" t="n">
         <v>1314.304877025854</v>
       </c>
       <c r="M20" t="n">
-        <v>1550.541731298291</v>
+        <v>1550.541731298292</v>
       </c>
       <c r="N20" t="n">
-        <v>1911.450269090999</v>
+        <v>1893.72867814443</v>
       </c>
       <c r="O20" t="n">
-        <v>2506.145172647784</v>
+        <v>2488.423581701215</v>
       </c>
       <c r="P20" t="n">
-        <v>2976.029131173106</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q20" t="n">
-        <v>3251.670655465909</v>
+        <v>3233.94906451934</v>
       </c>
       <c r="R20" t="n">
-        <v>3251.670655465909</v>
+        <v>3251.67065546591</v>
       </c>
       <c r="S20" t="n">
-        <v>3210.610695185918</v>
+        <v>3210.610695185919</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.666664430998</v>
+        <v>3105.666664430999</v>
       </c>
       <c r="U20" t="n">
         <v>2960.593773645024</v>
@@ -5789,13 +5789,13 @@
         <v>2738.126671084307</v>
       </c>
       <c r="W20" t="n">
-        <v>2493.953800597046</v>
+        <v>2493.953800597045</v>
       </c>
       <c r="X20" t="n">
         <v>2229.083827118819</v>
       </c>
       <c r="Y20" t="n">
-        <v>1947.540279925861</v>
+        <v>1947.54027992586</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I21" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J21" t="n">
-        <v>197.9537899615553</v>
+        <v>197.9537899615554</v>
       </c>
       <c r="K21" t="n">
-        <v>551.756728362973</v>
+        <v>551.7567283629731</v>
       </c>
       <c r="L21" t="n">
         <v>1088.892837324973</v>
       </c>
       <c r="M21" t="n">
-        <v>1306.636549937916</v>
+        <v>1491.265421687159</v>
       </c>
       <c r="N21" t="n">
-        <v>1544.551935622834</v>
+        <v>1729.180807372077</v>
       </c>
       <c r="O21" t="n">
-        <v>1924.607109531683</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P21" t="n">
         <v>2377.399020812165</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.9319273780648</v>
+        <v>360.9319273780652</v>
       </c>
       <c r="C22" t="n">
-        <v>300.5915292330111</v>
+        <v>300.5915292330114</v>
       </c>
       <c r="D22" t="n">
-        <v>259.0706746035286</v>
+        <v>259.0706746035289</v>
       </c>
       <c r="E22" t="n">
-        <v>219.7533658039887</v>
+        <v>219.7533658039889</v>
       </c>
       <c r="F22" t="n">
-        <v>181.4592030889315</v>
+        <v>181.4592030889317</v>
       </c>
       <c r="G22" t="n">
-        <v>121.5772607070814</v>
+        <v>121.5772607070815</v>
       </c>
       <c r="H22" t="n">
-        <v>77.06637736638314</v>
+        <v>77.06637736638319</v>
       </c>
       <c r="I22" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J22" t="n">
-        <v>65.03341310931819</v>
+        <v>162.8962298314007</v>
       </c>
       <c r="K22" t="n">
-        <v>180.7839653122846</v>
+        <v>278.6467820343672</v>
       </c>
       <c r="L22" t="n">
-        <v>384.4312552147235</v>
+        <v>588.7288006024805</v>
       </c>
       <c r="M22" t="n">
-        <v>715.972620720031</v>
+        <v>813.8354374421137</v>
       </c>
       <c r="N22" t="n">
-        <v>941.1613412955434</v>
+        <v>1039.024158017626</v>
       </c>
       <c r="O22" t="n">
-        <v>1133.143277083139</v>
+        <v>1247.41917749097</v>
       </c>
       <c r="P22" t="n">
-        <v>1281.737478566968</v>
+        <v>1388.172207232643</v>
       </c>
       <c r="Q22" t="n">
-        <v>1402.187229065863</v>
+        <v>1402.187229065864</v>
       </c>
       <c r="R22" t="n">
         <v>1386.110660170038</v>
       </c>
       <c r="S22" t="n">
-        <v>1289.516332015421</v>
+        <v>1289.516332015422</v>
       </c>
       <c r="T22" t="n">
-        <v>1173.034605426632</v>
+        <v>1173.034605426633</v>
       </c>
       <c r="U22" t="n">
-        <v>992.4852565784335</v>
+        <v>992.4852565784341</v>
       </c>
       <c r="V22" t="n">
-        <v>846.3965531553997</v>
+        <v>846.3965531554004</v>
       </c>
       <c r="W22" t="n">
-        <v>665.5751679012923</v>
+        <v>665.575167901293</v>
       </c>
       <c r="X22" t="n">
-        <v>546.1814017861282</v>
+        <v>546.1814017861287</v>
       </c>
       <c r="Y22" t="n">
-        <v>433.9846074254513</v>
+        <v>433.9846074254518</v>
       </c>
     </row>
     <row r="23">
@@ -5972,31 +5972,31 @@
         <v>1159.499578663136</v>
       </c>
       <c r="E23" t="n">
-        <v>882.3071108477448</v>
+        <v>882.3071108477452</v>
       </c>
       <c r="F23" t="n">
-        <v>579.9169908409904</v>
+        <v>579.916990840991</v>
       </c>
       <c r="G23" t="n">
-        <v>271.7128399355463</v>
+        <v>271.7128399355465</v>
       </c>
       <c r="H23" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="I23" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J23" t="n">
-        <v>277.6177194953744</v>
+        <v>277.6177194953745</v>
       </c>
       <c r="K23" t="n">
-        <v>716.9712922192357</v>
+        <v>716.9712922192358</v>
       </c>
       <c r="L23" t="n">
-        <v>1314.304877025854</v>
+        <v>967.8002037826607</v>
       </c>
       <c r="M23" t="n">
-        <v>1550.541731298291</v>
+        <v>1649.055456213003</v>
       </c>
       <c r="N23" t="n">
         <v>1893.728678144429</v>
@@ -6005,34 +6005,34 @@
         <v>2488.423581701214</v>
       </c>
       <c r="P23" t="n">
-        <v>2958.307540226535</v>
+        <v>2958.307540226536</v>
       </c>
       <c r="Q23" t="n">
-        <v>3233.949064519339</v>
+        <v>3233.94906451934</v>
       </c>
       <c r="R23" t="n">
-        <v>3251.670655465909</v>
+        <v>3251.67065546591</v>
       </c>
       <c r="S23" t="n">
         <v>3210.610695185918</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.666664430998</v>
+        <v>3105.666664430999</v>
       </c>
       <c r="U23" t="n">
-        <v>2960.593773645024</v>
+        <v>2960.593773645025</v>
       </c>
       <c r="V23" t="n">
         <v>2738.126671084307</v>
       </c>
       <c r="W23" t="n">
-        <v>2493.953800597045</v>
+        <v>2493.953800597046</v>
       </c>
       <c r="X23" t="n">
         <v>2229.083827118819</v>
       </c>
       <c r="Y23" t="n">
-        <v>1947.54027992586</v>
+        <v>1947.540279925861</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>105.6356905613283</v>
       </c>
       <c r="I24" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J24" t="n">
-        <v>197.9537899615553</v>
+        <v>197.9537899615554</v>
       </c>
       <c r="K24" t="n">
-        <v>551.756728362973</v>
+        <v>551.7567283629731</v>
       </c>
       <c r="L24" t="n">
         <v>1088.892837324973</v>
       </c>
       <c r="M24" t="n">
-        <v>1306.636549937916</v>
+        <v>1491.265421687159</v>
       </c>
       <c r="N24" t="n">
-        <v>1544.551935622834</v>
+        <v>1729.180807372077</v>
       </c>
       <c r="O24" t="n">
-        <v>1924.607109531683</v>
+        <v>1924.607109531682</v>
       </c>
       <c r="P24" t="n">
         <v>2377.399020812165</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.9319273780648</v>
+        <v>360.9319273780652</v>
       </c>
       <c r="C25" t="n">
-        <v>300.5915292330111</v>
+        <v>300.5915292330114</v>
       </c>
       <c r="D25" t="n">
-        <v>259.0706746035286</v>
+        <v>259.0706746035289</v>
       </c>
       <c r="E25" t="n">
-        <v>219.7533658039887</v>
+        <v>219.7533658039889</v>
       </c>
       <c r="F25" t="n">
-        <v>181.4592030889315</v>
+        <v>181.4592030889317</v>
       </c>
       <c r="G25" t="n">
-        <v>121.5772607070814</v>
+        <v>121.5772607070815</v>
       </c>
       <c r="H25" t="n">
-        <v>77.06637736638314</v>
+        <v>77.06637736638319</v>
       </c>
       <c r="I25" t="n">
-        <v>65.03341310931819</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="J25" t="n">
-        <v>162.8962298314007</v>
+        <v>65.0334131093182</v>
       </c>
       <c r="K25" t="n">
-        <v>278.6467820343671</v>
+        <v>180.7839653122847</v>
       </c>
       <c r="L25" t="n">
-        <v>588.7288006024804</v>
+        <v>384.4312552147237</v>
       </c>
       <c r="M25" t="n">
-        <v>813.8354374421135</v>
+        <v>617.379063796513</v>
       </c>
       <c r="N25" t="n">
-        <v>1055.437241703374</v>
+        <v>949.0025130376998</v>
       </c>
       <c r="O25" t="n">
-        <v>1247.419177490969</v>
+        <v>1247.41917749097</v>
       </c>
       <c r="P25" t="n">
-        <v>1388.172207232642</v>
+        <v>1388.172207232643</v>
       </c>
       <c r="Q25" t="n">
-        <v>1402.187229065863</v>
+        <v>1402.187229065864</v>
       </c>
       <c r="R25" t="n">
         <v>1386.110660170038</v>
       </c>
       <c r="S25" t="n">
-        <v>1289.516332015421</v>
+        <v>1289.516332015422</v>
       </c>
       <c r="T25" t="n">
-        <v>1173.034605426632</v>
+        <v>1173.034605426633</v>
       </c>
       <c r="U25" t="n">
-        <v>992.4852565784335</v>
+        <v>992.4852565784341</v>
       </c>
       <c r="V25" t="n">
-        <v>846.3965531553997</v>
+        <v>846.3965531554004</v>
       </c>
       <c r="W25" t="n">
-        <v>665.5751679012923</v>
+        <v>665.575167901293</v>
       </c>
       <c r="X25" t="n">
-        <v>546.1814017861282</v>
+        <v>546.1814017861287</v>
       </c>
       <c r="Y25" t="n">
-        <v>433.9846074254513</v>
+        <v>433.9846074254518</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1860.210822961703</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C26" t="n">
-        <v>1573.746170922752</v>
+        <v>1573.746170922753</v>
       </c>
       <c r="D26" t="n">
         <v>1297.978337217463</v>
       </c>
       <c r="E26" t="n">
-        <v>994.6879495206792</v>
+        <v>994.6879495206798</v>
       </c>
       <c r="F26" t="n">
-        <v>666.1999096325326</v>
+        <v>666.199909632533</v>
       </c>
       <c r="G26" t="n">
-        <v>331.8978388456958</v>
+        <v>331.8978388456962</v>
       </c>
       <c r="H26" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807552</v>
       </c>
       <c r="I26" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J26" t="n">
-        <v>285.6068786427394</v>
+        <v>285.6068786427395</v>
       </c>
       <c r="K26" t="n">
-        <v>724.9604513666006</v>
+        <v>724.9604513666009</v>
       </c>
       <c r="L26" t="n">
         <v>1322.294036173219</v>
       </c>
       <c r="M26" t="n">
-        <v>2003.549288603561</v>
+        <v>1615.539958413389</v>
       </c>
       <c r="N26" t="n">
-        <v>2310.90822645925</v>
+        <v>2293.186635512679</v>
       </c>
       <c r="O26" t="n">
-        <v>2905.603130016035</v>
+        <v>2887.881539069464</v>
       </c>
       <c r="P26" t="n">
-        <v>3375.487088541356</v>
+        <v>3357.765497594786</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.12861283416</v>
+        <v>3633.40702188759</v>
       </c>
       <c r="R26" t="n">
         <v>3651.12861283416</v>
       </c>
       <c r="S26" t="n">
-        <v>3583.970732672775</v>
+        <v>3583.970732672776</v>
       </c>
       <c r="T26" t="n">
-        <v>3452.928782036463</v>
+        <v>3452.928782036464</v>
       </c>
       <c r="U26" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369098</v>
       </c>
       <c r="V26" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W26" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X26" t="n">
-        <v>2471.954265198715</v>
+        <v>2471.954265198716</v>
       </c>
       <c r="Y26" t="n">
-        <v>2164.312798124364</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J27" t="n">
-        <v>205.9429491089203</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K27" t="n">
-        <v>559.745887510338</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L27" t="n">
         <v>1096.881996472338</v>
       </c>
       <c r="M27" t="n">
-        <v>1499.254580834525</v>
+        <v>1314.625709085282</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.169966519442</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O27" t="n">
         <v>1932.596268679048</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.6065256951762</v>
+        <v>551.6065256951763</v>
       </c>
       <c r="C28" t="n">
-        <v>465.1682076687301</v>
+        <v>465.1682076687302</v>
       </c>
       <c r="D28" t="n">
-        <v>397.5494331578552</v>
+        <v>397.5494331578553</v>
       </c>
       <c r="E28" t="n">
-        <v>332.1342044769229</v>
+        <v>332.134204476923</v>
       </c>
       <c r="F28" t="n">
-        <v>267.7421218804734</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G28" t="n">
         <v>181.7622596172309</v>
       </c>
       <c r="H28" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951402</v>
       </c>
       <c r="I28" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J28" t="n">
-        <v>145.306817703013</v>
+        <v>145.3068177030131</v>
       </c>
       <c r="K28" t="n">
-        <v>341.9135272959012</v>
+        <v>341.9135272959013</v>
       </c>
       <c r="L28" t="n">
-        <v>626.416974588262</v>
+        <v>626.4169745882622</v>
       </c>
       <c r="M28" t="n">
         <v>932.3797688178167</v>
@@ -6397,7 +6397,7 @@
         <v>1238.424646783251</v>
       </c>
       <c r="O28" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P28" t="n">
         <v>1732.871927092363</v>
@@ -6421,13 +6421,13 @@
         <v>1141.46283099808</v>
       </c>
       <c r="W28" t="n">
-        <v>934.5435258625805</v>
+        <v>934.5435258625806</v>
       </c>
       <c r="X28" t="n">
-        <v>789.051839866024</v>
+        <v>789.0518398660241</v>
       </c>
       <c r="Y28" t="n">
-        <v>650.7571256239551</v>
+        <v>650.7571256239552</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C29" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D29" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E29" t="n">
-        <v>994.6879495206797</v>
+        <v>994.687949520679</v>
       </c>
       <c r="F29" t="n">
-        <v>666.199909632533</v>
+        <v>666.1999096325324</v>
       </c>
       <c r="G29" t="n">
-        <v>331.8978388456962</v>
+        <v>331.8978388456956</v>
       </c>
       <c r="H29" t="n">
-        <v>99.12049213807555</v>
+        <v>99.12049213807538</v>
       </c>
       <c r="I29" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J29" t="n">
-        <v>285.6068786427394</v>
+        <v>118.2012296223864</v>
       </c>
       <c r="K29" t="n">
-        <v>724.9604513666006</v>
+        <v>557.5548023462477</v>
       </c>
       <c r="L29" t="n">
-        <v>1322.294036173219</v>
+        <v>1154.888387152866</v>
       </c>
       <c r="M29" t="n">
-        <v>2003.549288603561</v>
+        <v>1836.143639583208</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.195965702851</v>
+        <v>2513.790316682498</v>
       </c>
       <c r="O29" t="n">
-        <v>2905.603130016035</v>
+        <v>3108.485220239284</v>
       </c>
       <c r="P29" t="n">
-        <v>3375.487088541356</v>
+        <v>3578.369178764605</v>
       </c>
       <c r="Q29" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="R29" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S29" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672775</v>
       </c>
       <c r="T29" t="n">
-        <v>3452.928782036464</v>
+        <v>3452.928782036463</v>
       </c>
       <c r="U29" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V29" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W29" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X29" t="n">
-        <v>2471.954265198716</v>
+        <v>2471.954265198714</v>
       </c>
       <c r="Y29" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I30" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J30" t="n">
         <v>205.9429491089203</v>
       </c>
       <c r="K30" t="n">
-        <v>559.745887510338</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L30" t="n">
         <v>1096.881996472338</v>
       </c>
       <c r="M30" t="n">
-        <v>1499.254580834525</v>
+        <v>1499.254580834524</v>
       </c>
       <c r="N30" t="n">
         <v>1737.169966519442</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.6065256951764</v>
+        <v>551.6065256951756</v>
       </c>
       <c r="C31" t="n">
-        <v>465.1682076687304</v>
+        <v>465.1682076687297</v>
       </c>
       <c r="D31" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578549</v>
       </c>
       <c r="E31" t="n">
-        <v>332.1342044769232</v>
+        <v>332.1342044769227</v>
       </c>
       <c r="F31" t="n">
-        <v>267.7421218804736</v>
+        <v>267.7421218804733</v>
       </c>
       <c r="G31" t="n">
-        <v>181.7622596172311</v>
+        <v>181.7622596172309</v>
       </c>
       <c r="H31" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951404</v>
       </c>
       <c r="I31" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J31" t="n">
-        <v>145.306817703013</v>
+        <v>145.3068177030131</v>
       </c>
       <c r="K31" t="n">
         <v>341.9135272959012</v>
       </c>
       <c r="L31" t="n">
-        <v>626.4169745882615</v>
+        <v>626.4169745882621</v>
       </c>
       <c r="M31" t="n">
-        <v>932.3797688178163</v>
+        <v>932.3797688178171</v>
       </c>
       <c r="N31" t="n">
-        <v>1238.42464678325</v>
+        <v>1238.424646783251</v>
       </c>
       <c r="O31" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P31" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092364</v>
       </c>
       <c r="Q31" t="n">
-        <v>1827.743106315505</v>
+        <v>1827.743106315507</v>
       </c>
       <c r="R31" t="n">
-        <v>1785.568617538288</v>
+        <v>1785.568617538289</v>
       </c>
       <c r="S31" t="n">
-        <v>1662.876369502279</v>
+        <v>1662.87636950228</v>
       </c>
       <c r="T31" t="n">
-        <v>1520.296723032097</v>
+        <v>1520.296723032099</v>
       </c>
       <c r="U31" t="n">
-        <v>1313.649454302506</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V31" t="n">
-        <v>1141.46283099808</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W31" t="n">
-        <v>934.5435258625803</v>
+        <v>934.5435258625819</v>
       </c>
       <c r="X31" t="n">
-        <v>789.0518398660238</v>
+        <v>789.0518398660236</v>
       </c>
       <c r="Y31" t="n">
-        <v>650.7571256239553</v>
+        <v>650.7571256239544</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1860.210822961703</v>
       </c>
       <c r="C32" t="n">
-        <v>1573.746170922753</v>
+        <v>1573.746170922752</v>
       </c>
       <c r="D32" t="n">
-        <v>1297.978337217463</v>
+        <v>1297.978337217462</v>
       </c>
       <c r="E32" t="n">
-        <v>994.6879495206795</v>
+        <v>994.687949520679</v>
       </c>
       <c r="F32" t="n">
-        <v>666.1999096325328</v>
+        <v>666.1999096325324</v>
       </c>
       <c r="G32" t="n">
-        <v>331.897838845696</v>
+        <v>331.8978388456956</v>
       </c>
       <c r="H32" t="n">
-        <v>99.12049213807555</v>
+        <v>99.12049213807549</v>
       </c>
       <c r="I32" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J32" t="n">
         <v>285.6068786427394</v>
@@ -6707,37 +6707,37 @@
         <v>1322.294036173219</v>
       </c>
       <c r="M32" t="n">
-        <v>1615.539958413389</v>
+        <v>2003.549288603561</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.186635512679</v>
+        <v>2293.186635512678</v>
       </c>
       <c r="O32" t="n">
-        <v>2887.881539069465</v>
+        <v>2887.881539069463</v>
       </c>
       <c r="P32" t="n">
-        <v>3357.765497594786</v>
+        <v>3357.765497594784</v>
       </c>
       <c r="Q32" t="n">
-        <v>3633.40702188759</v>
+        <v>3633.407021887588</v>
       </c>
       <c r="R32" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S32" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672774</v>
       </c>
       <c r="T32" t="n">
         <v>3452.928782036463</v>
       </c>
       <c r="U32" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V32" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W32" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X32" t="n">
         <v>2471.954265198715</v>
@@ -6774,7 +6774,7 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I33" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J33" t="n">
         <v>205.9429491089203</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>551.6065256951765</v>
+        <v>551.6065256951761</v>
       </c>
       <c r="C34" t="n">
-        <v>465.1682076687305</v>
+        <v>465.16820766873</v>
       </c>
       <c r="D34" t="n">
-        <v>397.5494331578556</v>
+        <v>397.5494331578551</v>
       </c>
       <c r="E34" t="n">
-        <v>332.1342044769233</v>
+        <v>332.1342044769229</v>
       </c>
       <c r="F34" t="n">
-        <v>267.7421218804737</v>
+        <v>267.7421218804734</v>
       </c>
       <c r="G34" t="n">
-        <v>181.7622596172312</v>
+        <v>181.7622596172309</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1534563951406</v>
+        <v>111.1534563951405</v>
       </c>
       <c r="I34" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668318</v>
       </c>
       <c r="J34" t="n">
-        <v>145.3068177030134</v>
+        <v>145.3068177030127</v>
       </c>
       <c r="K34" t="n">
-        <v>341.9135272959016</v>
+        <v>341.913527295901</v>
       </c>
       <c r="L34" t="n">
-        <v>626.4169745882623</v>
+        <v>626.4169745882616</v>
       </c>
       <c r="M34" t="n">
-        <v>932.379768817817</v>
+        <v>932.3797688178165</v>
       </c>
       <c r="N34" t="n">
         <v>1238.424646783251</v>
       </c>
       <c r="O34" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P34" t="n">
-        <v>1732.871927092364</v>
+        <v>1732.871927092363</v>
       </c>
       <c r="Q34" t="n">
-        <v>1827.743106315506</v>
+        <v>1827.743106315505</v>
       </c>
       <c r="R34" t="n">
-        <v>1785.568617538289</v>
+        <v>1785.568617538288</v>
       </c>
       <c r="S34" t="n">
-        <v>1662.87636950228</v>
+        <v>1662.876369502279</v>
       </c>
       <c r="T34" t="n">
         <v>1520.296723032098</v>
       </c>
       <c r="U34" t="n">
-        <v>1313.649454302507</v>
+        <v>1313.649454302506</v>
       </c>
       <c r="V34" t="n">
-        <v>1141.462830998081</v>
+        <v>1141.46283099808</v>
       </c>
       <c r="W34" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625806</v>
       </c>
       <c r="X34" t="n">
-        <v>789.0518398660245</v>
+        <v>789.0518398660241</v>
       </c>
       <c r="Y34" t="n">
-        <v>650.7571256239554</v>
+        <v>650.7571256239549</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1860.210822961704</v>
+        <v>1860.210822961703</v>
       </c>
       <c r="C35" t="n">
         <v>1573.746170922753</v>
@@ -6920,34 +6920,34 @@
         <v>1297.978337217463</v>
       </c>
       <c r="E35" t="n">
-        <v>994.6879495206799</v>
+        <v>994.6879495206798</v>
       </c>
       <c r="F35" t="n">
-        <v>666.1999096325333</v>
+        <v>666.199909632533</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8978388456965</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H35" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807543</v>
       </c>
       <c r="I35" t="n">
         <v>73.02257225668319</v>
       </c>
       <c r="J35" t="n">
-        <v>285.6068786427394</v>
+        <v>285.6068786427395</v>
       </c>
       <c r="K35" t="n">
-        <v>724.9604513666006</v>
+        <v>724.9604513666009</v>
       </c>
       <c r="L35" t="n">
-        <v>934.2847059830466</v>
+        <v>1322.294036173219</v>
       </c>
       <c r="M35" t="n">
-        <v>1615.539958413388</v>
+        <v>2003.549288603561</v>
       </c>
       <c r="N35" t="n">
-        <v>2293.186635512679</v>
+        <v>2293.186635512678</v>
       </c>
       <c r="O35" t="n">
         <v>2887.881539069464</v>
@@ -6962,25 +6962,25 @@
         <v>3651.128612834159</v>
       </c>
       <c r="S35" t="n">
-        <v>3583.970732672775</v>
+        <v>3583.970732672776</v>
       </c>
       <c r="T35" t="n">
-        <v>3452.928782036464</v>
+        <v>3452.928782036463</v>
       </c>
       <c r="U35" t="n">
-        <v>3281.757971369098</v>
+        <v>3281.757971369097</v>
       </c>
       <c r="V35" t="n">
-        <v>3033.192948926988</v>
+        <v>3033.192948926987</v>
       </c>
       <c r="W35" t="n">
-        <v>2762.922158558335</v>
+        <v>2762.922158558334</v>
       </c>
       <c r="X35" t="n">
         <v>2471.954265198715</v>
       </c>
       <c r="Y35" t="n">
-        <v>2164.312798124365</v>
+        <v>2164.312798124364</v>
       </c>
     </row>
     <row r="36">
@@ -7014,10 +7014,10 @@
         <v>73.02257225668319</v>
       </c>
       <c r="J36" t="n">
-        <v>205.9429491089203</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K36" t="n">
-        <v>559.745887510338</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L36" t="n">
         <v>1096.881996472338</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>551.6065256951764</v>
+        <v>551.6065256951761</v>
       </c>
       <c r="C37" t="n">
-        <v>465.1682076687304</v>
+        <v>465.16820766873</v>
       </c>
       <c r="D37" t="n">
-        <v>397.5494331578554</v>
+        <v>397.5494331578552</v>
       </c>
       <c r="E37" t="n">
-        <v>332.1342044769232</v>
+        <v>332.1342044769229</v>
       </c>
       <c r="F37" t="n">
-        <v>267.7421218804736</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G37" t="n">
-        <v>181.7622596172311</v>
+        <v>181.762259617231</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951404</v>
       </c>
       <c r="I37" t="n">
         <v>73.02257225668319</v>
       </c>
       <c r="J37" t="n">
-        <v>145.3068177030134</v>
+        <v>145.3068177030131</v>
       </c>
       <c r="K37" t="n">
-        <v>341.9135272959016</v>
+        <v>341.9135272959014</v>
       </c>
       <c r="L37" t="n">
-        <v>626.4169745882623</v>
+        <v>626.4169745882622</v>
       </c>
       <c r="M37" t="n">
-        <v>932.379768817817</v>
+        <v>932.3797688178172</v>
       </c>
       <c r="N37" t="n">
-        <v>1238.424646783251</v>
+        <v>1238.42464678325</v>
       </c>
       <c r="O37" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P37" t="n">
-        <v>1732.871927092364</v>
+        <v>1732.871927092363</v>
       </c>
       <c r="Q37" t="n">
-        <v>1827.743106315506</v>
+        <v>1827.743106315505</v>
       </c>
       <c r="R37" t="n">
         <v>1785.568617538288</v>
@@ -7126,19 +7126,19 @@
         <v>1520.296723032098</v>
       </c>
       <c r="U37" t="n">
-        <v>1313.649454302507</v>
+        <v>1313.649454302506</v>
       </c>
       <c r="V37" t="n">
-        <v>1141.462830998081</v>
+        <v>1141.46283099808</v>
       </c>
       <c r="W37" t="n">
-        <v>934.5435258625811</v>
+        <v>934.5435258625805</v>
       </c>
       <c r="X37" t="n">
-        <v>789.0518398660246</v>
+        <v>789.051839866024</v>
       </c>
       <c r="Y37" t="n">
-        <v>650.7571256239553</v>
+        <v>650.7571256239548</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>1573.746170922751</v>
       </c>
       <c r="D38" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217461</v>
       </c>
       <c r="E38" t="n">
-        <v>994.6879495206783</v>
+        <v>994.6879495206779</v>
       </c>
       <c r="F38" t="n">
-        <v>666.1999096325317</v>
+        <v>666.1999096325314</v>
       </c>
       <c r="G38" t="n">
-        <v>331.897838845696</v>
+        <v>331.8978388456958</v>
       </c>
       <c r="H38" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807545</v>
       </c>
       <c r="I38" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J38" t="n">
-        <v>285.6068786427394</v>
+        <v>118.2012296223865</v>
       </c>
       <c r="K38" t="n">
-        <v>724.9604513666006</v>
+        <v>557.5548023462478</v>
       </c>
       <c r="L38" t="n">
-        <v>1322.294036173219</v>
+        <v>1154.888387152866</v>
       </c>
       <c r="M38" t="n">
-        <v>1615.539958413389</v>
+        <v>1836.143639583208</v>
       </c>
       <c r="N38" t="n">
-        <v>2293.186635512679</v>
+        <v>2513.790316682499</v>
       </c>
       <c r="O38" t="n">
-        <v>2887.881539069464</v>
+        <v>3108.485220239284</v>
       </c>
       <c r="P38" t="n">
-        <v>3357.765497594786</v>
+        <v>3578.369178764606</v>
       </c>
       <c r="Q38" t="n">
-        <v>3633.40702188759</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="R38" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S38" t="n">
         <v>3583.970732672775</v>
@@ -7205,13 +7205,13 @@
         <v>3452.928782036463</v>
       </c>
       <c r="U38" t="n">
-        <v>3281.757971369097</v>
+        <v>3281.757971369096</v>
       </c>
       <c r="V38" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926986</v>
       </c>
       <c r="W38" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558333</v>
       </c>
       <c r="X38" t="n">
         <v>2471.954265198714</v>
@@ -7248,13 +7248,13 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I39" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J39" t="n">
-        <v>205.9429491089203</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K39" t="n">
-        <v>559.745887510338</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L39" t="n">
         <v>1096.881996472338</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>551.6065256951763</v>
+        <v>551.6065256951761</v>
       </c>
       <c r="C40" t="n">
-        <v>465.1682076687302</v>
+        <v>465.16820766873</v>
       </c>
       <c r="D40" t="n">
-        <v>397.5494331578553</v>
+        <v>397.5494331578552</v>
       </c>
       <c r="E40" t="n">
-        <v>332.1342044769231</v>
+        <v>332.1342044769229</v>
       </c>
       <c r="F40" t="n">
-        <v>267.7421218804736</v>
+        <v>267.7421218804735</v>
       </c>
       <c r="G40" t="n">
-        <v>181.7622596172311</v>
+        <v>181.762259617231</v>
       </c>
       <c r="H40" t="n">
-        <v>111.1534563951405</v>
+        <v>111.1534563951404</v>
       </c>
       <c r="I40" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J40" t="n">
         <v>145.3068177030131</v>
       </c>
       <c r="K40" t="n">
-        <v>341.9135272959013</v>
+        <v>341.9135272959004</v>
       </c>
       <c r="L40" t="n">
-        <v>626.416974588262</v>
+        <v>626.4169745882612</v>
       </c>
       <c r="M40" t="n">
-        <v>932.379768817817</v>
+        <v>932.3797688178161</v>
       </c>
       <c r="N40" t="n">
-        <v>1238.424646783251</v>
+        <v>1238.42464678325</v>
       </c>
       <c r="O40" t="n">
-        <v>1511.262739960769</v>
+        <v>1511.262739960768</v>
       </c>
       <c r="P40" t="n">
         <v>1732.871927092363</v>
       </c>
       <c r="Q40" t="n">
-        <v>1827.743106315506</v>
+        <v>1827.743106315505</v>
       </c>
       <c r="R40" t="n">
         <v>1785.568617538288</v>
@@ -7363,19 +7363,19 @@
         <v>1520.296723032098</v>
       </c>
       <c r="U40" t="n">
-        <v>1313.649454302507</v>
+        <v>1313.649454302506</v>
       </c>
       <c r="V40" t="n">
-        <v>1141.462830998081</v>
+        <v>1141.46283099808</v>
       </c>
       <c r="W40" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625805</v>
       </c>
       <c r="X40" t="n">
-        <v>789.0518398660245</v>
+        <v>789.051839866024</v>
       </c>
       <c r="Y40" t="n">
-        <v>650.7571256239552</v>
+        <v>650.7571256239548</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>1573.746170922753</v>
       </c>
       <c r="D41" t="n">
-        <v>1297.978337217464</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E41" t="n">
-        <v>994.6879495206801</v>
+        <v>994.6879495206798</v>
       </c>
       <c r="F41" t="n">
-        <v>666.1999096325335</v>
+        <v>666.199909632533</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8978388456967</v>
+        <v>331.8978388456962</v>
       </c>
       <c r="H41" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807551</v>
       </c>
       <c r="I41" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J41" t="n">
-        <v>285.6068786427394</v>
+        <v>285.6068786427395</v>
       </c>
       <c r="K41" t="n">
-        <v>724.9604513666006</v>
+        <v>724.9604513666009</v>
       </c>
       <c r="L41" t="n">
         <v>1322.294036173219</v>
       </c>
       <c r="M41" t="n">
-        <v>2003.549288603561</v>
+        <v>1615.539958413388</v>
       </c>
       <c r="N41" t="n">
-        <v>2293.186635512679</v>
+        <v>2293.186635512678</v>
       </c>
       <c r="O41" t="n">
         <v>2887.881539069464</v>
       </c>
       <c r="P41" t="n">
-        <v>3357.765497594786</v>
+        <v>3357.765497594785</v>
       </c>
       <c r="Q41" t="n">
-        <v>3633.40702188759</v>
+        <v>3633.407021887589</v>
       </c>
       <c r="R41" t="n">
-        <v>3651.12861283416</v>
+        <v>3651.128612834159</v>
       </c>
       <c r="S41" t="n">
-        <v>3583.970732672776</v>
+        <v>3583.970732672775</v>
       </c>
       <c r="T41" t="n">
         <v>3452.928782036464</v>
@@ -7485,13 +7485,13 @@
         <v>113.6248497086933</v>
       </c>
       <c r="I42" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J42" t="n">
-        <v>205.9429491089203</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K42" t="n">
-        <v>559.745887510338</v>
+        <v>559.7458875103381</v>
       </c>
       <c r="L42" t="n">
         <v>1096.881996472338</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.6065256951763</v>
+        <v>551.6065256951765</v>
       </c>
       <c r="C43" t="n">
-        <v>465.1682076687302</v>
+        <v>465.1682076687304</v>
       </c>
       <c r="D43" t="n">
-        <v>397.5494331578553</v>
+        <v>397.5494331578554</v>
       </c>
       <c r="E43" t="n">
-        <v>332.1342044769231</v>
+        <v>332.1342044769232</v>
       </c>
       <c r="F43" t="n">
         <v>267.7421218804736</v>
@@ -7564,31 +7564,31 @@
         <v>111.1534563951405</v>
       </c>
       <c r="I43" t="n">
-        <v>73.0225722566832</v>
+        <v>73.02257225668319</v>
       </c>
       <c r="J43" t="n">
-        <v>145.3068177030125</v>
+        <v>145.3068177030129</v>
       </c>
       <c r="K43" t="n">
-        <v>341.9135272959011</v>
+        <v>341.9135272959012</v>
       </c>
       <c r="L43" t="n">
         <v>626.4169745882618</v>
       </c>
       <c r="M43" t="n">
-        <v>932.3797688178164</v>
+        <v>932.3797688178167</v>
       </c>
       <c r="N43" t="n">
-        <v>1238.42464678325</v>
+        <v>1238.424646783251</v>
       </c>
       <c r="O43" t="n">
-        <v>1511.262739960768</v>
+        <v>1511.262739960769</v>
       </c>
       <c r="P43" t="n">
         <v>1732.871927092363</v>
       </c>
       <c r="Q43" t="n">
-        <v>1827.743106315505</v>
+        <v>1827.743106315506</v>
       </c>
       <c r="R43" t="n">
         <v>1785.568617538288</v>
@@ -7600,19 +7600,19 @@
         <v>1520.296723032098</v>
       </c>
       <c r="U43" t="n">
-        <v>1313.649454302506</v>
+        <v>1313.649454302507</v>
       </c>
       <c r="V43" t="n">
-        <v>1141.46283099808</v>
+        <v>1141.462830998081</v>
       </c>
       <c r="W43" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625812</v>
       </c>
       <c r="X43" t="n">
-        <v>789.0518398660245</v>
+        <v>789.0518398660247</v>
       </c>
       <c r="Y43" t="n">
-        <v>650.7571256239552</v>
+        <v>650.7571256239554</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1860.210822961703</v>
+        <v>1860.210822961704</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.746170922752</v>
+        <v>1573.746170922753</v>
       </c>
       <c r="D44" t="n">
-        <v>1297.978337217462</v>
+        <v>1297.978337217463</v>
       </c>
       <c r="E44" t="n">
         <v>994.6879495206795</v>
@@ -7640,34 +7640,34 @@
         <v>331.897838845696</v>
       </c>
       <c r="H44" t="n">
-        <v>99.12049213807553</v>
+        <v>99.12049213807552</v>
       </c>
       <c r="I44" t="n">
         <v>73.0225722566832</v>
       </c>
       <c r="J44" t="n">
-        <v>285.6068786427394</v>
+        <v>285.6068786427395</v>
       </c>
       <c r="K44" t="n">
-        <v>724.9604513666006</v>
+        <v>724.9604513666009</v>
       </c>
       <c r="L44" t="n">
         <v>1322.294036173219</v>
       </c>
       <c r="M44" t="n">
-        <v>1615.539958413389</v>
+        <v>1633.261549359959</v>
       </c>
       <c r="N44" t="n">
-        <v>2293.186635512679</v>
+        <v>2310.908226459249</v>
       </c>
       <c r="O44" t="n">
-        <v>2887.881539069464</v>
+        <v>2905.603130016035</v>
       </c>
       <c r="P44" t="n">
-        <v>3357.765497594786</v>
+        <v>3375.487088541357</v>
       </c>
       <c r="Q44" t="n">
-        <v>3633.40702188759</v>
+        <v>3651.12861283416</v>
       </c>
       <c r="R44" t="n">
         <v>3651.12861283416</v>
@@ -7676,22 +7676,22 @@
         <v>3583.970732672776</v>
       </c>
       <c r="T44" t="n">
-        <v>3452.928782036463</v>
+        <v>3452.928782036464</v>
       </c>
       <c r="U44" t="n">
         <v>3281.757971369098</v>
       </c>
       <c r="V44" t="n">
-        <v>3033.192948926987</v>
+        <v>3033.192948926988</v>
       </c>
       <c r="W44" t="n">
-        <v>2762.922158558334</v>
+        <v>2762.922158558335</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.954265198715</v>
+        <v>2471.954265198716</v>
       </c>
       <c r="Y44" t="n">
-        <v>2164.312798124364</v>
+        <v>2164.312798124365</v>
       </c>
     </row>
     <row r="45">
@@ -7725,10 +7725,10 @@
         <v>73.0225722566832</v>
       </c>
       <c r="J45" t="n">
-        <v>205.9429491089203</v>
+        <v>205.9429491089204</v>
       </c>
       <c r="K45" t="n">
-        <v>559.745887510338</v>
+        <v>559.7458875103382</v>
       </c>
       <c r="L45" t="n">
         <v>1096.881996472338</v>
@@ -7737,7 +7737,7 @@
         <v>1314.625709085282</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.541094770199</v>
+        <v>1552.5410947702</v>
       </c>
       <c r="O45" t="n">
         <v>1932.596268679048</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.6065256951763</v>
+        <v>551.6065256951765</v>
       </c>
       <c r="C46" t="n">
-        <v>465.1682076687302</v>
+        <v>465.1682076687304</v>
       </c>
       <c r="D46" t="n">
-        <v>397.5494331578553</v>
+        <v>397.5494331578554</v>
       </c>
       <c r="E46" t="n">
-        <v>332.1342044769231</v>
+        <v>332.1342044769232</v>
       </c>
       <c r="F46" t="n">
         <v>267.7421218804736</v>
@@ -7810,7 +7810,7 @@
         <v>341.9135272959013</v>
       </c>
       <c r="L46" t="n">
-        <v>626.416974588262</v>
+        <v>626.4169745882621</v>
       </c>
       <c r="M46" t="n">
         <v>932.379768817817</v>
@@ -7822,7 +7822,7 @@
         <v>1511.262739960769</v>
       </c>
       <c r="P46" t="n">
-        <v>1732.871927092363</v>
+        <v>1732.871927092364</v>
       </c>
       <c r="Q46" t="n">
         <v>1827.743106315506</v>
@@ -7831,7 +7831,7 @@
         <v>1785.568617538288</v>
       </c>
       <c r="S46" t="n">
-        <v>1662.876369502279</v>
+        <v>1662.87636950228</v>
       </c>
       <c r="T46" t="n">
         <v>1520.296723032098</v>
@@ -7843,13 +7843,13 @@
         <v>1141.462830998081</v>
       </c>
       <c r="W46" t="n">
-        <v>934.543525862581</v>
+        <v>934.5435258625812</v>
       </c>
       <c r="X46" t="n">
-        <v>789.0518398660245</v>
+        <v>789.0518398660247</v>
       </c>
       <c r="Y46" t="n">
-        <v>650.7571256239552</v>
+        <v>650.7571256239554</v>
       </c>
     </row>
   </sheetData>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>267.374246767118</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>267.3742467671168</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="N12" t="n">
-        <v>413.3414387761605</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>143.9927163750188</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>155.4039163764175</v>
+        <v>27.68909105506694</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>77.99178080762601</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>67.65649410278104</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>99.50881304516315</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>195.2147227101416</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>117.4094099608909</v>
+        <v>99.50881304516315</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>47.81582295725465</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>186.4938098477206</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9641,13 +9641,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>67.65649410278024</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>99.50881304516327</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>186.4938098477193</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>186.4938098477206</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,10 +9881,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>57.58491713912284</v>
       </c>
       <c r="N26" t="n">
-        <v>63.31890497400315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>47.81582295725465</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>186.4938098477203</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>186.4938098477196</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>6.772161824764112</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>7.383586393995571</v>
       </c>
       <c r="R29" t="n">
-        <v>47.81582295725465</v>
+        <v>47.8158229572546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>186.4938098477203</v>
+        <v>186.4938098477198</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>57.58491713912392</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>45.41830805827362</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>25.73259819674107</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>45.41830805827351</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>186.4938098477206</v>
+        <v>186.4938098477198</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>57.58491713912392</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>7.383586393995571</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>47.8158229572546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>186.4938098477206</v>
+        <v>186.4938098477198</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>57.58491713912193</v>
       </c>
       <c r="N41" t="n">
-        <v>45.4183080582755</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>186.4938098477206</v>
+        <v>186.4938098477198</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>57.58491713912392</v>
+        <v>75.48551405485048</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>47.8158229572546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>186.4938098477206</v>
+        <v>186.4938098477196</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.4786356669601</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>360.6208397451909</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>82.72036890502787</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.25462093850415</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.9039816156959</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>165.1492113858748</v>
+        <v>165.1492113858747</v>
       </c>
       <c r="U11" t="n">
         <v>204.8767828166183</v>
       </c>
       <c r="V11" t="n">
-        <v>281.4970524736144</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9857627208925</v>
+        <v>142.7609552340216</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>323.4758946819485</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.982732659533</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.5767741854168</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.9916151021073</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3602670216919</v>
+        <v>102.3602670216918</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1787566500487</v>
+        <v>100.1787566500486</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.16584202641071</v>
       </c>
       <c r="G13" t="n">
         <v>120.5377438965358</v>
       </c>
       <c r="H13" t="n">
-        <v>75.42815025166985</v>
+        <v>10.69182675168763</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.8830058115744</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>239.9984762982212</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.8824373273075</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>319.0176857744871</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4761658991436</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>259.8188956435417</v>
       </c>
       <c r="H14" t="n">
-        <v>265.86725349647</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>323.4758946819485</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.9827326595332</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.94223981102886</v>
       </c>
       <c r="C16" t="n">
-        <v>120.9916151021073</v>
+        <v>120.9916151021074</v>
       </c>
       <c r="D16" t="n">
         <v>102.3602670216919</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1787566500487</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.16584202641079</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>105.3203954457955</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.16725555299848</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.17042414537131</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>176.5715302614051</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>239.9984762982212</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>240.2677923400705</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>104.2851861120001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1299344.045703104</v>
+        <v>1299344.045703105</v>
       </c>
     </row>
     <row r="7">
@@ -26317,28 +26317,28 @@
         <v>61445.72540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="E2" t="n">
         <v>50883.14573657595</v>
       </c>
       <c r="F2" t="n">
-        <v>54572.88693817634</v>
+        <v>54572.88693817629</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982116</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982115</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982116</v>
@@ -26350,7 +26350,7 @@
         <v>61578.13273982116</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982116</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982116</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>765922.9220621448</v>
+        <v>765922.9220621451</v>
       </c>
       <c r="F3" t="n">
-        <v>45631.45848158505</v>
+        <v>45631.45848158501</v>
       </c>
       <c r="G3" t="n">
-        <v>49003.69675080332</v>
+        <v>49003.69675080335</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42463.55670056828</v>
+        <v>42463.55670056833</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49003.69675080332</v>
+        <v>49003.69675080329</v>
       </c>
       <c r="M3" t="n">
-        <v>162894.6891756673</v>
+        <v>162894.6891756674</v>
       </c>
       <c r="N3" t="n">
         <v>39006.4993456761</v>
@@ -26427,7 +26427,7 @@
         <v>111492.9860655485</v>
       </c>
       <c r="F4" t="n">
-        <v>127881.7967627226</v>
+        <v>127881.7967627225</v>
       </c>
       <c r="G4" t="n">
         <v>181150.5889076155</v>
@@ -26439,7 +26439,7 @@
         <v>181150.5889076155</v>
       </c>
       <c r="J4" t="n">
-        <v>173949.7893477468</v>
+        <v>173949.7893477467</v>
       </c>
       <c r="K4" t="n">
         <v>173949.7893477468</v>
@@ -26451,13 +26451,13 @@
         <v>173949.7893477468</v>
       </c>
       <c r="N4" t="n">
-        <v>173949.7893477468</v>
+        <v>173949.7893477467</v>
       </c>
       <c r="O4" t="n">
-        <v>173949.7893477468</v>
+        <v>173949.7893477467</v>
       </c>
       <c r="P4" t="n">
-        <v>173949.7893477468</v>
+        <v>173949.7893477467</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>58114.24465058543</v>
       </c>
       <c r="F5" t="n">
-        <v>67797.10999502317</v>
+        <v>67797.10999502319</v>
       </c>
       <c r="G5" t="n">
-        <v>72946.72472270229</v>
+        <v>72946.7247227023</v>
       </c>
       <c r="H5" t="n">
         <v>72946.72472270229</v>
@@ -26491,25 +26491,25 @@
         <v>72946.72472270229</v>
       </c>
       <c r="J5" t="n">
+        <v>76846.39990845602</v>
+      </c>
+      <c r="K5" t="n">
+        <v>76846.39990845599</v>
+      </c>
+      <c r="L5" t="n">
+        <v>76846.39990845599</v>
+      </c>
+      <c r="M5" t="n">
         <v>76846.39990845601</v>
-      </c>
-      <c r="K5" t="n">
-        <v>76846.39990845601</v>
-      </c>
-      <c r="L5" t="n">
-        <v>76846.39990845602</v>
-      </c>
-      <c r="M5" t="n">
-        <v>76846.39990845599</v>
       </c>
       <c r="N5" t="n">
         <v>76846.39990845601</v>
       </c>
       <c r="O5" t="n">
-        <v>76846.39990845601</v>
+        <v>76846.39990845599</v>
       </c>
       <c r="P5" t="n">
-        <v>76846.39990845601</v>
+        <v>76846.39990845602</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386954.273209181</v>
+        <v>-386958.6867870491</v>
       </c>
       <c r="C6" t="n">
-        <v>-386954.273209181</v>
+        <v>-386958.6867870492</v>
       </c>
       <c r="D6" t="n">
-        <v>-386954.273209181</v>
+        <v>-386958.6867870492</v>
       </c>
       <c r="E6" t="n">
-        <v>-884647.0070417029</v>
+        <v>-885003.5066084779</v>
       </c>
       <c r="F6" t="n">
-        <v>-186737.4783011545</v>
+        <v>-186970.9864945426</v>
       </c>
       <c r="G6" t="n">
         <v>-241522.8776412999</v>
       </c>
       <c r="H6" t="n">
-        <v>-192519.1808904966</v>
+        <v>-192519.1808904965</v>
       </c>
       <c r="I6" t="n">
-        <v>-192519.1808904966</v>
+        <v>-192519.1808904965</v>
       </c>
       <c r="J6" t="n">
         <v>-231681.6132169499</v>
       </c>
       <c r="K6" t="n">
+        <v>-189218.0565163815</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-238221.7532671849</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-352112.745692049</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-228224.5558620577</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-205552.6687675352</v>
+      </c>
+      <c r="P6" t="n">
         <v>-189218.0565163816</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-238221.753267185</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-352112.7456920489</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-228224.5558620578</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-205552.6687675353</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-189218.0565163817</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="F2" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="G2" t="n">
         <v>107.5098269350246</v>
       </c>
       <c r="H2" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="I2" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="J2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="K2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="L2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="M2" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="N2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="O2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="P2" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="F3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="G3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="H3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="I3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="J3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="K3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="L3" t="n">
         <v>664.361794450453</v>
       </c>
       <c r="M3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="N3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="O3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="P3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>653.660010175067</v>
       </c>
       <c r="F4" t="n">
-        <v>812.9176638664774</v>
+        <v>812.9176638664775</v>
       </c>
       <c r="G4" t="n">
-        <v>812.9176638664774</v>
+        <v>812.9176638664776</v>
       </c>
       <c r="H4" t="n">
-        <v>812.9176638664774</v>
+        <v>812.9176638664776</v>
       </c>
       <c r="I4" t="n">
-        <v>812.9176638664774</v>
+        <v>812.9176638664775</v>
       </c>
       <c r="J4" t="n">
-        <v>912.78215320854</v>
+        <v>912.7821532085401</v>
       </c>
       <c r="K4" t="n">
-        <v>912.78215320854</v>
+        <v>912.7821532085396</v>
       </c>
       <c r="L4" t="n">
-        <v>912.7821532085401</v>
+        <v>912.7821532085396</v>
       </c>
       <c r="M4" t="n">
         <v>912.7821532085399</v>
       </c>
       <c r="N4" t="n">
-        <v>912.78215320854</v>
+        <v>912.7821532085399</v>
       </c>
       <c r="O4" t="n">
-        <v>912.78215320854</v>
+        <v>912.7821532085399</v>
       </c>
       <c r="P4" t="n">
-        <v>912.78215320854</v>
+        <v>912.7821532085401</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.25462093850415</v>
+        <v>61.25462093850418</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41826531394207</v>
+        <v>20.41826531394213</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.25462093850415</v>
+        <v>61.25462093850411</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>664.361794450453</v>
+        <v>664.3617944504532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="F4" t="n">
-        <v>159.2576536914104</v>
+        <v>159.2576536914105</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>99.8644893420626</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-4.573719425475184e-14</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.6600101750668</v>
+        <v>653.6600101750672</v>
       </c>
       <c r="N4" t="n">
         <v>159.2576536914105</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.25462093850415</v>
+        <v>61.25462093850418</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41826531394207</v>
+        <v>20.41826531394213</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>653.660010175067</v>
       </c>
       <c r="N4" t="n">
-        <v>159.2576536914104</v>
+        <v>159.2576536914105</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="C11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="E11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="F11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="G11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="H11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="T11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="U11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="V11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="W11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="X11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="C13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="D13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="E13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="F13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="G13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="H13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="I13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="J13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="K13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="L13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="M13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="N13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="O13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="P13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="R13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="S13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="T13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="U13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="V13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="W13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="X13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652053</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="C14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="D14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="E14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="F14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="G14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="H14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="I14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="U14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="V14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="W14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="X14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="D16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="E16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="F16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="G16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="H16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="I16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="J16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="K16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="L16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="M16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="N16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="O16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="P16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="R16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="S16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="T16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="U16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="V16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="W16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="X16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.2552059965205</v>
+        <v>46.25520599652045</v>
       </c>
     </row>
     <row r="17">
@@ -28743,28 +28743,28 @@
         <v>107.5098269350246</v>
       </c>
       <c r="J19" t="n">
-        <v>8.65849691271913</v>
+        <v>8.658496912719102</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="M19" t="n">
-        <v>7.920375497127452</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="N19" t="n">
-        <v>107.5098269350246</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>107.5098269350246</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.920375497127129</v>
       </c>
       <c r="R19" t="n">
         <v>107.5098269350246</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="C20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="D20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="E20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="F20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="G20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="H20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="I20" t="n">
         <v>107.5098269350246</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="T20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="U20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="V20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="W20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="X20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="Y20" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="D22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="E22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="F22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="G22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="H22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="I22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="J22" t="n">
-        <v>8.65849691271913</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="M22" t="n">
-        <v>107.5098269350247</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>16.57887240984641</v>
       </c>
       <c r="P22" t="n">
-        <v>7.920375497126827</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.5098269350247</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="S22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="T22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="U22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="V22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="W22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="X22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="C23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="D23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="E23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="F23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="G23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="H23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="I23" t="n">
         <v>107.5098269350246</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="T23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="U23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="V23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="W23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="X23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="Y23" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
     </row>
     <row r="24">
@@ -29193,46 +29193,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="C25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="D25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="E25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="F25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="G25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="H25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="I25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="J25" t="n">
-        <v>107.5098269350247</v>
+        <v>8.658496912719102</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>107.5098269350247</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>7.920375497127424</v>
       </c>
       <c r="N25" t="n">
-        <v>16.57887240984613</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="S25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="T25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="U25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="V25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="W25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="X25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.5098269350247</v>
+        <v>107.5098269350246</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="K28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="L28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="M28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="N28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="O28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="P28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="R28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="S28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="C29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="D29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="E29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="F29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="G29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="H29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="I29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="T29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="U29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="V29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="W29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="X29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="C31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="D31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="E31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="F31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="G31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="H31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="I31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="J31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="K31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="L31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="M31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="N31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="O31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="P31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="R31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="S31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="T31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="U31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="V31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="W31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="X31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244632</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="C32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="D32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="E32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="F32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="G32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="H32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="I32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="T32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="U32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="V32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="W32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="X32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="C34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="D34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="E34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="F34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="G34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="H34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="I34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="J34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="K34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="L34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="M34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="N34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="O34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="P34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="R34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="S34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="T34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="U34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="V34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="W34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="X34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244625</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="C35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="D35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="E35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="F35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="G35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="H35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="I35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="T35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="U35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="V35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="W35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="X35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="C37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="D37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="E37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="F37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="G37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="H37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="I37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="J37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="K37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="L37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="M37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="N37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244481</v>
       </c>
       <c r="O37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="P37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="R37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="S37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="T37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="U37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="V37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="W37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="X37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.67288625244622</v>
+        <v>81.67288625244628</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="C38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="D38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="E38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="F38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="G38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="H38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="I38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="T38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="U38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="V38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="W38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="X38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="C40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="D40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="E40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="F40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="G40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="H40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="I40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="J40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="K40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244527</v>
       </c>
       <c r="L40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="M40" t="n">
-        <v>81.6728862524464</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="N40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="O40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="P40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="R40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="S40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="T40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="U40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="V40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="W40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="X40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244626</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="K43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="L43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="M43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="N43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="O43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="P43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="R43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="S43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="C46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="D46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="E46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="F46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="G46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="H46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="I46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="J46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="K46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="L46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="M46" t="n">
-        <v>81.6728862524464</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="N46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="O46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="P46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.67288625244649</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="R46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="S46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="T46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="U46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="V46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="W46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="X46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.67288625244623</v>
+        <v>81.6728862524462</v>
       </c>
     </row>
   </sheetData>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H11" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I11" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J11" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K11" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L11" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M11" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N11" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O11" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P11" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q11" t="n">
         <v>288.4164813284879</v>
@@ -31786,13 +31786,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S11" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T11" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I12" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J12" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K12" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L12" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M12" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N12" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O12" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P12" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R12" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S12" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T12" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H13" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I13" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J13" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K13" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M13" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N13" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O13" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P13" t="n">
         <v>144.8962182519479</v>
@@ -31941,16 +31941,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R13" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S13" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T13" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H14" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I14" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J14" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K14" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L14" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M14" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N14" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O14" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P14" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q14" t="n">
         <v>288.4164813284879</v>
@@ -32023,13 +32023,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S14" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T14" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I15" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J15" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K15" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L15" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M15" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N15" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O15" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P15" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R15" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S15" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T15" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H16" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I16" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J16" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K16" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M16" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N16" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O16" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P16" t="n">
         <v>144.8962182519479</v>
@@ -32178,16 +32178,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R16" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S16" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T16" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H17" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I17" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J17" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K17" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L17" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M17" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N17" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O17" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P17" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q17" t="n">
         <v>288.4164813284879</v>
@@ -32260,13 +32260,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S17" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T17" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I18" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J18" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K18" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L18" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M18" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N18" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O18" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P18" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R18" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S18" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T18" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H19" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I19" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J19" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K19" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L19" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M19" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N19" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O19" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P19" t="n">
         <v>144.8962182519479</v>
@@ -32415,16 +32415,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R19" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S19" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T19" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H20" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I20" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J20" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K20" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L20" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M20" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N20" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O20" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P20" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q20" t="n">
         <v>288.4164813284879</v>
@@ -32497,13 +32497,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S20" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T20" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I21" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J21" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K21" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L21" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M21" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N21" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O21" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P21" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R21" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S21" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T21" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H22" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I22" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J22" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K22" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L22" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M22" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N22" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O22" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P22" t="n">
         <v>144.8962182519479</v>
@@ -32652,16 +32652,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R22" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S22" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T22" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H23" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I23" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J23" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K23" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L23" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M23" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N23" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O23" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P23" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q23" t="n">
         <v>288.4164813284879</v>
@@ -32734,13 +32734,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S23" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T23" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I24" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J24" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K24" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L24" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M24" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N24" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O24" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P24" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q24" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R24" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S24" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T24" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H25" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I25" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J25" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K25" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M25" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N25" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O25" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P25" t="n">
         <v>144.8962182519479</v>
@@ -32889,16 +32889,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R25" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S25" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T25" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H26" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I26" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J26" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K26" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L26" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M26" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N26" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O26" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P26" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q26" t="n">
         <v>288.4164813284879</v>
@@ -32971,13 +32971,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S26" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T26" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I27" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J27" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K27" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L27" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M27" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N27" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O27" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P27" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q27" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R27" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S27" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T27" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H28" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I28" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J28" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K28" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L28" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M28" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N28" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O28" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P28" t="n">
         <v>144.8962182519479</v>
@@ -33126,16 +33126,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R28" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S28" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T28" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H29" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I29" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J29" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K29" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L29" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M29" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N29" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O29" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P29" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q29" t="n">
         <v>288.4164813284879</v>
@@ -33208,13 +33208,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S29" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T29" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I30" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J30" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K30" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L30" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M30" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N30" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O30" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P30" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q30" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R30" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S30" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T30" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H31" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I31" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J31" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K31" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L31" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M31" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N31" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O31" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P31" t="n">
         <v>144.8962182519479</v>
@@ -33363,16 +33363,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R31" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S31" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T31" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H35" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I35" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J35" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K35" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L35" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M35" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N35" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O35" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P35" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q35" t="n">
         <v>288.4164813284879</v>
@@ -33682,13 +33682,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S35" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T35" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I36" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J36" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K36" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L36" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M36" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N36" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O36" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P36" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q36" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R36" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S36" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T36" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H37" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I37" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J37" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K37" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L37" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M37" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N37" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O37" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P37" t="n">
         <v>144.8962182519479</v>
@@ -33837,16 +33837,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R37" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S37" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T37" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H38" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I38" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J38" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K38" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L38" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M38" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N38" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O38" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P38" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q38" t="n">
         <v>288.4164813284879</v>
@@ -33919,13 +33919,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S38" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T38" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I39" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J39" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K39" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L39" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M39" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N39" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O39" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P39" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q39" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R39" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S39" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T39" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H40" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I40" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J40" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K40" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L40" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M40" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N40" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O40" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P40" t="n">
         <v>144.8962182519479</v>
@@ -34074,16 +34074,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R40" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S40" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T40" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H41" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I41" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J41" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K41" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L41" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M41" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N41" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O41" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P41" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q41" t="n">
         <v>288.4164813284879</v>
@@ -34156,13 +34156,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S41" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T41" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I42" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J42" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K42" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L42" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M42" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N42" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O42" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P42" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q42" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R42" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S42" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T42" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H43" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I43" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J43" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K43" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L43" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M43" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N43" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O43" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P43" t="n">
         <v>144.8962182519479</v>
@@ -34311,16 +34311,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R43" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S43" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T43" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.670801183720412</v>
+        <v>2.670801183720413</v>
       </c>
       <c r="H44" t="n">
-        <v>27.35234262277667</v>
+        <v>27.35234262277669</v>
       </c>
       <c r="I44" t="n">
         <v>102.9660626353813</v>
       </c>
       <c r="J44" t="n">
-        <v>226.6809119667905</v>
+        <v>226.6809119667906</v>
       </c>
       <c r="K44" t="n">
-        <v>339.7359260736756</v>
+        <v>339.7359260736757</v>
       </c>
       <c r="L44" t="n">
-        <v>421.4724577999593</v>
+        <v>421.4724577999594</v>
       </c>
       <c r="M44" t="n">
-        <v>468.9693183509471</v>
+        <v>468.9693183509473</v>
       </c>
       <c r="N44" t="n">
-        <v>476.5577322141928</v>
+        <v>476.5577322141929</v>
       </c>
       <c r="O44" t="n">
-        <v>449.9999529435729</v>
+        <v>449.9999529435731</v>
       </c>
       <c r="P44" t="n">
-        <v>384.0645487204752</v>
+        <v>384.0645487204753</v>
       </c>
       <c r="Q44" t="n">
         <v>288.4164813284879</v>
@@ -34393,13 +34393,13 @@
         <v>167.7697148568775</v>
       </c>
       <c r="S44" t="n">
-        <v>60.86088197402895</v>
+        <v>60.86088197402897</v>
       </c>
       <c r="T44" t="n">
         <v>11.69143218173611</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2136640946976329</v>
+        <v>0.213664094697633</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>13.80117614509338</v>
       </c>
       <c r="I45" t="n">
-        <v>49.20037817392506</v>
+        <v>49.20037817392508</v>
       </c>
       <c r="J45" t="n">
-        <v>135.0095982477095</v>
+        <v>135.0095982477096</v>
       </c>
       <c r="K45" t="n">
-        <v>230.7529074177578</v>
+        <v>230.7529074177579</v>
       </c>
       <c r="L45" t="n">
-        <v>310.2757607006573</v>
+        <v>310.2757607006574</v>
       </c>
       <c r="M45" t="n">
-        <v>362.0771779754969</v>
+        <v>362.077177975497</v>
       </c>
       <c r="N45" t="n">
-        <v>371.6602834822398</v>
+        <v>371.6602834822399</v>
       </c>
       <c r="O45" t="n">
-        <v>339.9965496561672</v>
+        <v>339.9965496561673</v>
       </c>
       <c r="P45" t="n">
-        <v>272.8772057243757</v>
+        <v>272.8772057243758</v>
       </c>
       <c r="Q45" t="n">
-        <v>182.4111855253395</v>
+        <v>182.4111855253396</v>
       </c>
       <c r="R45" t="n">
-        <v>88.72363737962846</v>
+        <v>88.72363737962849</v>
       </c>
       <c r="S45" t="n">
         <v>26.54313395752516</v>
       </c>
       <c r="T45" t="n">
-        <v>5.759891406603454</v>
+        <v>5.759891406603455</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09401346147883773</v>
+        <v>0.09401346147883775</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>1.198029465402456</v>
       </c>
       <c r="H46" t="n">
-        <v>10.65157106512366</v>
+        <v>10.65157106512367</v>
       </c>
       <c r="I46" t="n">
-        <v>36.02801337773933</v>
+        <v>36.02801337773934</v>
       </c>
       <c r="J46" t="n">
-        <v>84.70068320395364</v>
+        <v>84.70068320395367</v>
       </c>
       <c r="K46" t="n">
         <v>139.189241525849</v>
       </c>
       <c r="L46" t="n">
-        <v>178.1143079744706</v>
+        <v>178.1143079744707</v>
       </c>
       <c r="M46" t="n">
         <v>187.7965642903141</v>
       </c>
       <c r="N46" t="n">
-        <v>183.3311817374505</v>
+        <v>183.3311817374506</v>
       </c>
       <c r="O46" t="n">
-        <v>169.3360193461581</v>
+        <v>169.3360193461582</v>
       </c>
       <c r="P46" t="n">
         <v>144.8962182519479</v>
@@ -34548,16 +34548,16 @@
         <v>100.3186309620184</v>
       </c>
       <c r="R46" t="n">
-        <v>53.86776123527769</v>
+        <v>53.86776123527771</v>
       </c>
       <c r="S46" t="n">
-        <v>20.87838622887734</v>
+        <v>20.87838622887735</v>
       </c>
       <c r="T46" t="n">
-        <v>5.118853170355948</v>
+        <v>5.118853170355949</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06534706174922496</v>
+        <v>0.06534706174922497</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K11" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L11" t="n">
-        <v>453.08028959709</v>
+        <v>185.7060428299721</v>
       </c>
       <c r="M11" t="n">
-        <v>238.6230851236744</v>
+        <v>238.6230851236745</v>
       </c>
       <c r="N11" t="n">
-        <v>247.1446686176019</v>
+        <v>247.144668617602</v>
       </c>
       <c r="O11" t="n">
-        <v>219.9017415218862</v>
+        <v>487.2759882890032</v>
       </c>
       <c r="P11" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q11" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R11" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L12" t="n">
-        <v>171.7213809207831</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M12" t="n">
-        <v>219.9431440534785</v>
+        <v>406.436953901198</v>
       </c>
       <c r="N12" t="n">
-        <v>653.660010175067</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O12" t="n">
-        <v>341.3930215867416</v>
+        <v>197.4003052117229</v>
       </c>
       <c r="P12" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q12" t="n">
         <v>252.5066991751671</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.59670908380137</v>
+        <v>37.59670908380143</v>
       </c>
       <c r="K13" t="n">
-        <v>163.1749556964866</v>
+        <v>163.1749556964867</v>
       </c>
       <c r="L13" t="n">
-        <v>251.9595392313072</v>
+        <v>251.9595392313074</v>
       </c>
       <c r="M13" t="n">
-        <v>273.6356472486751</v>
+        <v>273.6356472486752</v>
       </c>
       <c r="N13" t="n">
-        <v>273.7185601131996</v>
+        <v>273.7185601131997</v>
       </c>
       <c r="O13" t="n">
-        <v>240.1763532567183</v>
+        <v>240.1763532567184</v>
       </c>
       <c r="P13" t="n">
         <v>188.4299835133619</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.41179370684452</v>
+        <v>60.41179370684458</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>201.0389238165217</v>
+        <v>73.32409849517126</v>
       </c>
       <c r="K14" t="n">
-        <v>119.6460750286951</v>
+        <v>119.6460750286952</v>
       </c>
       <c r="L14" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M14" t="n">
-        <v>238.6230851236744</v>
+        <v>688.136618616507</v>
       </c>
       <c r="N14" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295862</v>
       </c>
       <c r="O14" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P14" t="n">
-        <v>474.6302611366883</v>
+        <v>152.8315529652058</v>
       </c>
       <c r="Q14" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R14" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L15" t="n">
-        <v>249.7131617284091</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M15" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534786</v>
       </c>
       <c r="N15" t="n">
-        <v>719.6609457424599</v>
+        <v>426.8123812466259</v>
       </c>
       <c r="O15" t="n">
-        <v>197.4003052117228</v>
+        <v>197.4003052117229</v>
       </c>
       <c r="P15" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q15" t="n">
         <v>252.5066991751671</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.59670908380137</v>
+        <v>37.59670908380135</v>
       </c>
       <c r="K16" t="n">
         <v>163.1749556964866</v>
       </c>
       <c r="L16" t="n">
-        <v>251.9595392313072</v>
+        <v>251.9595392313073</v>
       </c>
       <c r="M16" t="n">
-        <v>273.6356472486751</v>
+        <v>273.6356472486752</v>
       </c>
       <c r="N16" t="n">
         <v>273.7185601131996</v>
@@ -35823,7 +35823,7 @@
         <v>188.4299835133619</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.41179370684452</v>
+        <v>60.4117937068445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K17" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L17" t="n">
-        <v>253.3625369327531</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M17" t="n">
-        <v>688.1366186165069</v>
+        <v>238.6230851236745</v>
       </c>
       <c r="N17" t="n">
-        <v>247.1446686176019</v>
+        <v>346.6534816627652</v>
       </c>
       <c r="O17" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P17" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q17" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R17" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>134.2630069214517</v>
       </c>
       <c r="K18" t="n">
-        <v>288.1261911535404</v>
+        <v>357.3767054559775</v>
       </c>
       <c r="L18" t="n">
-        <v>171.7213809207831</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M18" t="n">
-        <v>685.6482078034785</v>
+        <v>406.436953901198</v>
       </c>
       <c r="N18" t="n">
-        <v>719.6609457424599</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O18" t="n">
-        <v>197.4003052117228</v>
+        <v>197.4003052117229</v>
       </c>
       <c r="P18" t="n">
-        <v>138.9027983100455</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q18" t="n">
         <v>252.5066991751671</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>116.9197496999661</v>
+        <v>116.9197496999662</v>
       </c>
       <c r="L19" t="n">
-        <v>205.7043332347868</v>
+        <v>313.2141601698115</v>
       </c>
       <c r="M19" t="n">
-        <v>235.3008167492821</v>
+        <v>334.8902681871793</v>
       </c>
       <c r="N19" t="n">
-        <v>334.9731810517038</v>
+        <v>227.4633541166792</v>
       </c>
       <c r="O19" t="n">
-        <v>301.4309741952225</v>
+        <v>193.9211472601979</v>
       </c>
       <c r="P19" t="n">
         <v>142.1747775168414</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.15658771032402</v>
+        <v>22.07696320745118</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K20" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L20" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M20" t="n">
-        <v>238.6230851236744</v>
+        <v>238.6230851236745</v>
       </c>
       <c r="N20" t="n">
-        <v>364.5540785784928</v>
+        <v>346.6534816627652</v>
       </c>
       <c r="O20" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P20" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q20" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L21" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M21" t="n">
-        <v>219.9431440534785</v>
+        <v>406.436953901198</v>
       </c>
       <c r="N21" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O21" t="n">
-        <v>383.8941150594434</v>
+        <v>197.4003052117229</v>
       </c>
       <c r="P21" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q21" t="n">
         <v>252.5066991751671</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>98.8513300223055</v>
       </c>
       <c r="K22" t="n">
-        <v>116.9197496999661</v>
+        <v>116.9197496999662</v>
       </c>
       <c r="L22" t="n">
-        <v>205.7043332347868</v>
+        <v>313.2141601698115</v>
       </c>
       <c r="M22" t="n">
-        <v>334.8902681871793</v>
+        <v>227.3804412521547</v>
       </c>
       <c r="N22" t="n">
-        <v>227.4633541166791</v>
+        <v>227.4633541166792</v>
       </c>
       <c r="O22" t="n">
-        <v>193.9211472601978</v>
+        <v>210.5000196700443</v>
       </c>
       <c r="P22" t="n">
-        <v>150.0951530139682</v>
+        <v>142.1747775168414</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.6664146453487</v>
+        <v>14.15658771032405</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K23" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L23" t="n">
-        <v>603.3672573804224</v>
+        <v>253.3625369327524</v>
       </c>
       <c r="M23" t="n">
-        <v>238.6230851236744</v>
+        <v>688.136618616507</v>
       </c>
       <c r="N23" t="n">
-        <v>346.6534816627652</v>
+        <v>247.144668617602</v>
       </c>
       <c r="O23" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P23" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q23" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R23" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L24" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M24" t="n">
-        <v>219.9431440534785</v>
+        <v>406.436953901198</v>
       </c>
       <c r="N24" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O24" t="n">
-        <v>383.8941150594434</v>
+        <v>197.4003052117229</v>
       </c>
       <c r="P24" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q24" t="n">
         <v>252.5066991751671</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>98.85133002230553</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>116.9197496999661</v>
+        <v>116.9197496999662</v>
       </c>
       <c r="L25" t="n">
-        <v>313.2141601698114</v>
+        <v>205.7043332347868</v>
       </c>
       <c r="M25" t="n">
-        <v>227.3804412521546</v>
+        <v>235.3008167492821</v>
       </c>
       <c r="N25" t="n">
-        <v>244.0422265265252</v>
+        <v>334.9731810517038</v>
       </c>
       <c r="O25" t="n">
-        <v>193.9211472601978</v>
+        <v>301.4309741952225</v>
       </c>
       <c r="P25" t="n">
         <v>142.1747775168414</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.15658771032402</v>
+        <v>14.15658771032405</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K26" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L26" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M26" t="n">
-        <v>688.1366186165069</v>
+        <v>296.2080022627974</v>
       </c>
       <c r="N26" t="n">
-        <v>310.463573591605</v>
+        <v>684.4915930295862</v>
       </c>
       <c r="O26" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P26" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q26" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L27" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M27" t="n">
-        <v>406.4369539011989</v>
+        <v>219.9431440534786</v>
       </c>
       <c r="N27" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O27" t="n">
-        <v>197.4003052117228</v>
+        <v>383.8941150594425</v>
       </c>
       <c r="P27" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q27" t="n">
         <v>252.5066991751671</v>
@@ -36753,7 +36753,7 @@
         <v>73.0143893397271</v>
       </c>
       <c r="K28" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524124</v>
       </c>
       <c r="L28" t="n">
         <v>287.377219487233</v>
@@ -36762,7 +36762,7 @@
         <v>309.0533275046009</v>
       </c>
       <c r="N28" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691254</v>
       </c>
       <c r="O28" t="n">
         <v>275.594033512644</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>214.731622612178</v>
+        <v>45.63500744010432</v>
       </c>
       <c r="K29" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L29" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M29" t="n">
-        <v>688.1366186165069</v>
+        <v>688.136618616507</v>
       </c>
       <c r="N29" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295862</v>
       </c>
       <c r="O29" t="n">
-        <v>226.6739033466503</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P29" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q29" t="n">
-        <v>278.4257821139431</v>
+        <v>73.49437784803401</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L30" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M30" t="n">
-        <v>406.4369539011989</v>
+        <v>406.4369539011984</v>
       </c>
       <c r="N30" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O30" t="n">
-        <v>197.4003052117228</v>
+        <v>197.4003052117229</v>
       </c>
       <c r="P30" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q30" t="n">
         <v>252.5066991751671</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.01438933972709</v>
+        <v>73.01438933972722</v>
       </c>
       <c r="K31" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524125</v>
       </c>
       <c r="L31" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872332</v>
       </c>
       <c r="M31" t="n">
-        <v>309.0533275046009</v>
+        <v>309.053327504601</v>
       </c>
       <c r="N31" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691255</v>
       </c>
       <c r="O31" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126442</v>
       </c>
       <c r="P31" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.82947396277024</v>
+        <v>95.82947396277036</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>603.3672573804224</v>
       </c>
       <c r="M32" t="n">
-        <v>296.2080022627983</v>
+        <v>688.1366186165069</v>
       </c>
       <c r="N32" t="n">
-        <v>684.4915930295861</v>
+        <v>292.5629766758755</v>
       </c>
       <c r="O32" t="n">
         <v>600.7019227846315</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.01438933972709</v>
+        <v>73.01438933972712</v>
       </c>
       <c r="K34" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524124</v>
       </c>
       <c r="L34" t="n">
         <v>287.377219487233</v>
@@ -37245,7 +37245,7 @@
         <v>223.8476637692876</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.82947396277024</v>
+        <v>95.82947396277027</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K35" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L35" t="n">
-        <v>211.4386410267131</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M35" t="n">
-        <v>688.1366186165069</v>
+        <v>688.136618616507</v>
       </c>
       <c r="N35" t="n">
-        <v>684.4915930295861</v>
+        <v>292.5629766758755</v>
       </c>
       <c r="O35" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P35" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q35" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R35" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L36" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M36" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534786</v>
       </c>
       <c r="N36" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O36" t="n">
-        <v>383.8941150594434</v>
+        <v>383.8941150594427</v>
       </c>
       <c r="P36" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q36" t="n">
         <v>252.5066991751671</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.01438933972709</v>
+        <v>73.01438933972717</v>
       </c>
       <c r="K37" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524124</v>
       </c>
       <c r="L37" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M37" t="n">
-        <v>309.0533275046009</v>
+        <v>309.053327504601</v>
       </c>
       <c r="N37" t="n">
-        <v>309.1362403691253</v>
+        <v>309.136240369124</v>
       </c>
       <c r="O37" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126442</v>
       </c>
       <c r="P37" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.82947396277024</v>
+        <v>95.82947396277032</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>214.731622612178</v>
+        <v>45.63500744010432</v>
       </c>
       <c r="K38" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L38" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M38" t="n">
-        <v>296.2080022627983</v>
+        <v>688.136618616507</v>
       </c>
       <c r="N38" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295862</v>
       </c>
       <c r="O38" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P38" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.4257821139431</v>
+        <v>73.49437784803401</v>
       </c>
       <c r="R38" t="n">
-        <v>17.90059691572779</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L39" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M39" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534786</v>
       </c>
       <c r="N39" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O39" t="n">
-        <v>383.8941150594434</v>
+        <v>383.8941150594427</v>
       </c>
       <c r="P39" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q39" t="n">
         <v>252.5066991751671</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.0143893397271</v>
+        <v>73.01438933972716</v>
       </c>
       <c r="K40" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524114</v>
       </c>
       <c r="L40" t="n">
-        <v>287.377219487233</v>
+        <v>287.3772194872331</v>
       </c>
       <c r="M40" t="n">
         <v>309.053327504601</v>
       </c>
       <c r="N40" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691254</v>
       </c>
       <c r="O40" t="n">
-        <v>275.594033512644</v>
+        <v>275.5940335126442</v>
       </c>
       <c r="P40" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692877</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.82947396277025</v>
+        <v>95.82947396277031</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K41" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L41" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M41" t="n">
-        <v>688.1366186165069</v>
+        <v>296.2080022627965</v>
       </c>
       <c r="N41" t="n">
-        <v>292.5629766758774</v>
+        <v>684.4915930295862</v>
       </c>
       <c r="O41" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P41" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q41" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R41" t="n">
-        <v>17.90059691572779</v>
+        <v>17.90059691572785</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L42" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M42" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534786</v>
       </c>
       <c r="N42" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O42" t="n">
-        <v>383.8941150594434</v>
+        <v>383.8941150594427</v>
       </c>
       <c r="P42" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q42" t="n">
         <v>252.5066991751671</v>
@@ -37938,7 +37938,7 @@
         <v>73.0143893397271</v>
       </c>
       <c r="K43" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524124</v>
       </c>
       <c r="L43" t="n">
         <v>287.377219487233</v>
@@ -37947,7 +37947,7 @@
         <v>309.0533275046009</v>
       </c>
       <c r="N43" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691254</v>
       </c>
       <c r="O43" t="n">
         <v>275.594033512644</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>214.731622612178</v>
+        <v>214.7316226121781</v>
       </c>
       <c r="K44" t="n">
-        <v>443.7914875998598</v>
+        <v>443.7914875998599</v>
       </c>
       <c r="L44" t="n">
-        <v>603.3672573804224</v>
+        <v>603.3672573804226</v>
       </c>
       <c r="M44" t="n">
-        <v>296.2080022627983</v>
+        <v>314.108599178525</v>
       </c>
       <c r="N44" t="n">
-        <v>684.4915930295861</v>
+        <v>684.4915930295862</v>
       </c>
       <c r="O44" t="n">
-        <v>600.7019227846315</v>
+        <v>600.7019227846317</v>
       </c>
       <c r="P44" t="n">
-        <v>474.6302611366883</v>
+        <v>474.6302611366884</v>
       </c>
       <c r="Q44" t="n">
         <v>278.4257821139431</v>
       </c>
       <c r="R44" t="n">
-        <v>17.90059691572779</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>357.3767054559775</v>
       </c>
       <c r="L45" t="n">
-        <v>542.5617262242423</v>
+        <v>542.5617262242424</v>
       </c>
       <c r="M45" t="n">
-        <v>219.9431440534785</v>
+        <v>219.9431440534786</v>
       </c>
       <c r="N45" t="n">
-        <v>240.3185713989065</v>
+        <v>240.3185713989066</v>
       </c>
       <c r="O45" t="n">
-        <v>383.8941150594434</v>
+        <v>383.8941150594425</v>
       </c>
       <c r="P45" t="n">
-        <v>457.3655669499826</v>
+        <v>457.3655669499827</v>
       </c>
       <c r="Q45" t="n">
         <v>252.5066991751671</v>
@@ -38175,22 +38175,22 @@
         <v>73.0143893397271</v>
       </c>
       <c r="K46" t="n">
-        <v>198.5926359524123</v>
+        <v>198.5926359524124</v>
       </c>
       <c r="L46" t="n">
         <v>287.377219487233</v>
       </c>
       <c r="M46" t="n">
-        <v>309.053327504601</v>
+        <v>309.0533275046009</v>
       </c>
       <c r="N46" t="n">
-        <v>309.1362403691253</v>
+        <v>309.1362403691254</v>
       </c>
       <c r="O46" t="n">
         <v>275.594033512644</v>
       </c>
       <c r="P46" t="n">
-        <v>223.8476637692876</v>
+        <v>223.8476637692879</v>
       </c>
       <c r="Q46" t="n">
         <v>95.82947396277025</v>
